--- a/Bases_de_Dados_(2022-2023)/France National_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France National_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -670,6 +670,9 @@
     <t>['20', '83']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
     <t>['49', '90+3']</t>
   </si>
   <si>
@@ -854,9 +857,6 @@
   </si>
   <si>
     <t>['31', '55', '76']</t>
-  </si>
-  <si>
-    <t>['45+2']</t>
   </si>
   <si>
     <t>['23', '78']</t>
@@ -1275,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK214"/>
+  <dimension ref="A1:BK215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2474,7 +2474,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2856,7 +2856,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT9">
         <v>1.46</v>
@@ -3047,7 +3047,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3429,7 +3429,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3811,7 +3811,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4002,7 +4002,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4092,7 +4092,7 @@
         <v>0.91</v>
       </c>
       <c r="AT15">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -5235,7 +5235,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT21">
         <v>1.46</v>
@@ -5339,7 +5339,7 @@
         <v>83</v>
       </c>
       <c r="P22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5530,7 +5530,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -6103,7 +6103,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6294,7 +6294,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6485,7 +6485,7 @@
         <v>83</v>
       </c>
       <c r="P28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6867,7 +6867,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7249,7 +7249,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q32">
         <v>9</v>
@@ -7721,7 +7721,7 @@
         <v>1.42</v>
       </c>
       <c r="AT34">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU34">
         <v>1.43</v>
@@ -8395,7 +8395,7 @@
         <v>83</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8586,7 +8586,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8968,7 +8968,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9350,7 +9350,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9628,7 +9628,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT44">
         <v>1.67</v>
@@ -9923,7 +9923,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10496,7 +10496,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -10777,7 +10777,7 @@
         <v>1.55</v>
       </c>
       <c r="AT50">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU50">
         <v>1.41</v>
@@ -10878,7 +10878,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11451,7 +11451,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11833,7 +11833,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -12024,7 +12024,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12111,7 +12111,7 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT57">
         <v>1.17</v>
@@ -12215,7 +12215,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12406,7 +12406,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12597,7 +12597,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q60">
         <v>1</v>
@@ -13170,7 +13170,7 @@
         <v>83</v>
       </c>
       <c r="P63" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -13934,7 +13934,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14125,7 +14125,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14507,7 +14507,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14698,7 +14698,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15549,7 +15549,7 @@
         <v>0.25</v>
       </c>
       <c r="AS75">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT75">
         <v>0.58</v>
@@ -15844,7 +15844,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -16035,7 +16035,7 @@
         <v>83</v>
       </c>
       <c r="P78" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16226,7 +16226,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16417,7 +16417,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16608,7 +16608,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16799,7 +16799,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>-1</v>
@@ -16889,7 +16889,7 @@
         <v>1.85</v>
       </c>
       <c r="AT82">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU82">
         <v>1.53</v>
@@ -16990,7 +16990,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17181,7 +17181,7 @@
         <v>83</v>
       </c>
       <c r="P84" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17372,7 +17372,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -18327,7 +18327,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18414,7 +18414,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT90">
         <v>0.91</v>
@@ -18709,7 +18709,7 @@
         <v>83</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18900,7 +18900,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19282,7 +19282,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19473,7 +19473,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19563,7 +19563,7 @@
         <v>0.92</v>
       </c>
       <c r="AT96">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU96">
         <v>1.42</v>
@@ -20237,7 +20237,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20897,7 +20897,7 @@
         <v>0.4</v>
       </c>
       <c r="AS103">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT103">
         <v>1</v>
@@ -21383,7 +21383,7 @@
         <v>154</v>
       </c>
       <c r="P106" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21574,7 +21574,7 @@
         <v>155</v>
       </c>
       <c r="P107" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21765,7 +21765,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22147,7 +22147,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22338,7 +22338,7 @@
         <v>158</v>
       </c>
       <c r="P111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22720,7 +22720,7 @@
         <v>83</v>
       </c>
       <c r="P113" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -23102,7 +23102,7 @@
         <v>161</v>
       </c>
       <c r="P115" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23383,7 +23383,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU116">
         <v>1.6</v>
@@ -23484,7 +23484,7 @@
         <v>83</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23675,7 +23675,7 @@
         <v>83</v>
       </c>
       <c r="P118" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -24057,7 +24057,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24821,7 +24821,7 @@
         <v>83</v>
       </c>
       <c r="P124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25203,7 +25203,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25481,7 +25481,7 @@
         <v>1.43</v>
       </c>
       <c r="AS127">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT127">
         <v>1.33</v>
@@ -27012,7 +27012,7 @@
         <v>1</v>
       </c>
       <c r="AT135">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU135">
         <v>1.42</v>
@@ -27304,7 +27304,7 @@
         <v>83</v>
       </c>
       <c r="P137" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27582,7 +27582,7 @@
         <v>1</v>
       </c>
       <c r="AS138">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT138">
         <v>0.67</v>
@@ -27877,7 +27877,7 @@
         <v>172</v>
       </c>
       <c r="P140" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28450,7 +28450,7 @@
         <v>174</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28641,7 +28641,7 @@
         <v>175</v>
       </c>
       <c r="P144" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -29023,7 +29023,7 @@
         <v>177</v>
       </c>
       <c r="P146" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29214,7 +29214,7 @@
         <v>178</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29978,7 +29978,7 @@
         <v>181</v>
       </c>
       <c r="P151" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30259,7 +30259,7 @@
         <v>2</v>
       </c>
       <c r="AT152">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU152">
         <v>1.63</v>
@@ -30360,7 +30360,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -30551,7 +30551,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q154">
         <v>11</v>
@@ -31124,7 +31124,7 @@
         <v>83</v>
       </c>
       <c r="P157" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q157">
         <v>8</v>
@@ -31784,7 +31784,7 @@
         <v>1.11</v>
       </c>
       <c r="AS160">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT160">
         <v>1.15</v>
@@ -32461,7 +32461,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q164">
         <v>7</v>
@@ -32652,7 +32652,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -33225,7 +33225,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33416,7 +33416,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="Q169">
         <v>2</v>
@@ -33888,7 +33888,7 @@
         <v>1.36</v>
       </c>
       <c r="AT171">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU171">
         <v>1.59</v>
@@ -34458,7 +34458,7 @@
         <v>1.4</v>
       </c>
       <c r="AS174">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT174">
         <v>1.38</v>
@@ -35899,7 +35899,7 @@
         <v>83</v>
       </c>
       <c r="P182" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q182">
         <v>9</v>
@@ -36562,7 +36562,7 @@
         <v>1.92</v>
       </c>
       <c r="AT185">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU185">
         <v>1.46</v>
@@ -37236,7 +37236,7 @@
         <v>86</v>
       </c>
       <c r="P189" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q189">
         <v>2</v>
@@ -38851,7 +38851,7 @@
         <v>1.56</v>
       </c>
       <c r="AS197">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT197">
         <v>1.55</v>
@@ -39427,7 +39427,7 @@
         <v>1.92</v>
       </c>
       <c r="AT200">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU200">
         <v>2.06</v>
@@ -41056,7 +41056,7 @@
         <v>119</v>
       </c>
       <c r="P209" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -42153,6 +42153,197 @@
       </c>
       <c r="BK214">
         <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2960431</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44998.70833333334</v>
+      </c>
+      <c r="F215">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s">
+        <v>72</v>
+      </c>
+      <c r="H215" t="s">
+        <v>68</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>1</v>
+      </c>
+      <c r="O215" t="s">
+        <v>218</v>
+      </c>
+      <c r="P215" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q215">
+        <v>8</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
+        <v>10</v>
+      </c>
+      <c r="T215">
+        <v>1.95</v>
+      </c>
+      <c r="U215">
+        <v>2.2</v>
+      </c>
+      <c r="V215">
+        <v>7</v>
+      </c>
+      <c r="W215">
+        <v>1.4</v>
+      </c>
+      <c r="X215">
+        <v>2.7</v>
+      </c>
+      <c r="Y215">
+        <v>2.88</v>
+      </c>
+      <c r="Z215">
+        <v>1.36</v>
+      </c>
+      <c r="AA215">
+        <v>6.5</v>
+      </c>
+      <c r="AB215">
+        <v>1.08</v>
+      </c>
+      <c r="AC215">
+        <v>1.4</v>
+      </c>
+      <c r="AD215">
+        <v>4.2</v>
+      </c>
+      <c r="AE215">
+        <v>6.5</v>
+      </c>
+      <c r="AF215">
+        <v>1.05</v>
+      </c>
+      <c r="AG215">
+        <v>8</v>
+      </c>
+      <c r="AH215">
+        <v>1.33</v>
+      </c>
+      <c r="AI215">
+        <v>3</v>
+      </c>
+      <c r="AJ215">
+        <v>1.95</v>
+      </c>
+      <c r="AK215">
+        <v>1.85</v>
+      </c>
+      <c r="AL215">
+        <v>2.37</v>
+      </c>
+      <c r="AM215">
+        <v>1.54</v>
+      </c>
+      <c r="AN215">
+        <v>1.09</v>
+      </c>
+      <c r="AO215">
+        <v>1.22</v>
+      </c>
+      <c r="AP215">
+        <v>2.75</v>
+      </c>
+      <c r="AQ215">
+        <v>2</v>
+      </c>
+      <c r="AR215">
+        <v>0.27</v>
+      </c>
+      <c r="AS215">
+        <v>2.08</v>
+      </c>
+      <c r="AT215">
+        <v>0.25</v>
+      </c>
+      <c r="AU215">
+        <v>1.58</v>
+      </c>
+      <c r="AV215">
+        <v>0.85</v>
+      </c>
+      <c r="AW215">
+        <v>2.43</v>
+      </c>
+      <c r="AX215">
+        <v>1.16</v>
+      </c>
+      <c r="AY215">
+        <v>10.25</v>
+      </c>
+      <c r="AZ215">
+        <v>6.45</v>
+      </c>
+      <c r="BA215">
+        <v>1.53</v>
+      </c>
+      <c r="BB215">
+        <v>1.9</v>
+      </c>
+      <c r="BC215">
+        <v>2.39</v>
+      </c>
+      <c r="BD215">
+        <v>3.45</v>
+      </c>
+      <c r="BE215">
+        <v>5</v>
+      </c>
+      <c r="BF215">
+        <v>6</v>
+      </c>
+      <c r="BG215">
+        <v>2</v>
+      </c>
+      <c r="BH215">
+        <v>8</v>
+      </c>
+      <c r="BI215">
+        <v>1</v>
+      </c>
+      <c r="BJ215">
+        <v>14</v>
+      </c>
+      <c r="BK215">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France National_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France National_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK215"/>
+  <dimension ref="A1:BK223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.46</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT3" t="n">
         <v>0.58</v>
@@ -1309,7 +1309,7 @@
         <v>1.42</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT5" t="n">
         <v>1.15</v>
@@ -1715,7 +1715,7 @@
         <v>1.85</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0.92</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>1.38</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT10" t="n">
         <v>1.46</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT11" t="n">
         <v>1.17</v>
@@ -2933,7 +2933,7 @@
         <v>1.42</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT15" t="n">
         <v>0.25</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT17" t="n">
         <v>1.55</v>
@@ -4354,7 +4354,7 @@
         <v>1.92</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>0.92</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU22" t="n">
         <v>1.42</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT23" t="n">
         <v>1.38</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>0.58</v>
@@ -5572,7 +5572,7 @@
         <v>1.42</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU25" t="n">
         <v>1.47</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT27" t="n">
         <v>1.67</v>
@@ -6181,7 +6181,7 @@
         <v>1.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU29" t="n">
         <v>1.94</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU30" t="n">
         <v>1.69</v>
@@ -6790,7 +6790,7 @@
         <v>1.42</v>
       </c>
       <c r="AT31" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU31" t="n">
         <v>1.61</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT32" t="n">
         <v>1.17</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT33" t="n">
         <v>1.36</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT34" t="n">
         <v>0.25</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU35" t="n">
         <v>2.36</v>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU36" t="n">
         <v>1.73</v>
@@ -8008,7 +8008,7 @@
         <v>1.92</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU37" t="n">
         <v>1.82</v>
@@ -8414,7 +8414,7 @@
         <v>1.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU39" t="n">
         <v>1.46</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT41" t="n">
         <v>1.55</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT45" t="n">
         <v>0.58</v>
@@ -9835,7 +9835,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU46" t="n">
         <v>1.71</v>
@@ -10038,7 +10038,7 @@
         <v>1.92</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU47" t="n">
         <v>1.48</v>
@@ -10238,10 +10238,10 @@
         <v>0.67</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU48" t="n">
         <v>2.08</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU49" t="n">
         <v>1.54</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT50" t="n">
         <v>0.25</v>
@@ -10850,7 +10850,7 @@
         <v>1.42</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -11050,10 +11050,10 @@
         <v>3</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU52" t="n">
         <v>1.49</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU53" t="n">
         <v>1.48</v>
@@ -11456,10 +11456,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT54" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU54" t="n">
         <v>2.17</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT55" t="n">
         <v>1.36</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT59" t="n">
         <v>0.58</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU63" t="n">
         <v>1.47</v>
@@ -13689,10 +13689,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU65" t="n">
         <v>1.44</v>
@@ -13892,7 +13892,7 @@
         <v>0.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT66" t="n">
         <v>1.36</v>
@@ -14095,10 +14095,10 @@
         <v>0.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU67" t="n">
         <v>1.32</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU68" t="n">
         <v>1.29</v>
@@ -14504,7 +14504,7 @@
         <v>1.92</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU69" t="n">
         <v>1.74</v>
@@ -14704,10 +14704,10 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU70" t="n">
         <v>1.87</v>
@@ -14907,10 +14907,10 @@
         <v>0.75</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU71" t="n">
         <v>1.98</v>
@@ -15110,10 +15110,10 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15313,10 +15313,10 @@
         <v>2.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU73" t="n">
         <v>1.61</v>
@@ -17343,10 +17343,10 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU83" t="n">
         <v>1.58</v>
@@ -17546,10 +17546,10 @@
         <v>0.8</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU84" t="n">
         <v>1.85</v>
@@ -17955,7 +17955,7 @@
         <v>1</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU86" t="n">
         <v>1.27</v>
@@ -18155,10 +18155,10 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT87" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU87" t="n">
         <v>1.31</v>
@@ -18358,10 +18358,10 @@
         <v>1.75</v>
       </c>
       <c r="AS88" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT88" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AT88" t="n">
-        <v>1.09</v>
       </c>
       <c r="AU88" t="n">
         <v>1.04</v>
@@ -18561,10 +18561,10 @@
         <v>0.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU89" t="n">
         <v>1.45</v>
@@ -18767,7 +18767,7 @@
         <v>2.08</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU90" t="n">
         <v>1.53</v>
@@ -18967,10 +18967,10 @@
         <v>1.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU91" t="n">
         <v>1.42</v>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT94" t="n">
         <v>1.15</v>
@@ -20997,10 +20997,10 @@
         <v>1.67</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU101" t="n">
         <v>1.48</v>
@@ -21200,10 +21200,10 @@
         <v>1.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU102" t="n">
         <v>1.34</v>
@@ -21406,7 +21406,7 @@
         <v>2.08</v>
       </c>
       <c r="AT103" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU103" t="n">
         <v>1.64</v>
@@ -21609,7 +21609,7 @@
         <v>1.85</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU104" t="n">
         <v>1.4</v>
@@ -21809,10 +21809,10 @@
         <v>1.17</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU105" t="n">
         <v>1.59</v>
@@ -22215,7 +22215,7 @@
         <v>0.83</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT107" t="n">
         <v>1.46</v>
@@ -22418,10 +22418,10 @@
         <v>0.4</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT108" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU108" t="n">
         <v>1.09</v>
@@ -22621,10 +22621,10 @@
         <v>1.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU109" t="n">
         <v>1.3</v>
@@ -23030,7 +23030,7 @@
         <v>0.92</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU111" t="n">
         <v>1.41</v>
@@ -23839,7 +23839,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT115" t="n">
         <v>1.38</v>
@@ -24651,10 +24651,10 @@
         <v>1.43</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU119" t="n">
         <v>1.38</v>
@@ -24857,7 +24857,7 @@
         <v>1.46</v>
       </c>
       <c r="AT120" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU120" t="n">
         <v>1.86</v>
@@ -25057,7 +25057,7 @@
         <v>1.14</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT121" t="n">
         <v>1.46</v>
@@ -25463,10 +25463,10 @@
         <v>1.14</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU123" t="n">
         <v>1.37</v>
@@ -25666,10 +25666,10 @@
         <v>1.57</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU124" t="n">
         <v>1.17</v>
@@ -25872,7 +25872,7 @@
         <v>1.85</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU125" t="n">
         <v>1.35</v>
@@ -26072,7 +26072,7 @@
         <v>0.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT126" t="n">
         <v>1.15</v>
@@ -26278,7 +26278,7 @@
         <v>2.08</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU127" t="n">
         <v>1.83</v>
@@ -26481,7 +26481,7 @@
         <v>1.5</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU128" t="n">
         <v>1.73</v>
@@ -27493,7 +27493,7 @@
         <v>1.43</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT133" t="n">
         <v>1.38</v>
@@ -27699,7 +27699,7 @@
         <v>1.42</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU134" t="n">
         <v>1.64</v>
@@ -28102,7 +28102,7 @@
         <v>2.33</v>
       </c>
       <c r="AS136" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT136" t="n">
         <v>1.55</v>
@@ -28305,10 +28305,10 @@
         <v>1.25</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU137" t="n">
         <v>1.18</v>
@@ -28511,7 +28511,7 @@
         <v>2.08</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU138" t="n">
         <v>1.79</v>
@@ -28711,7 +28711,7 @@
         <v>1.13</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT139" t="n">
         <v>1.15</v>
@@ -28917,7 +28917,7 @@
         <v>1.46</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU140" t="n">
         <v>1.92</v>
@@ -29323,7 +29323,7 @@
         <v>0.92</v>
       </c>
       <c r="AT142" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU142" t="n">
         <v>1.43</v>
@@ -29523,7 +29523,7 @@
         <v>1.38</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT143" t="n">
         <v>1.46</v>
@@ -29729,7 +29729,7 @@
         <v>1.85</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU144" t="n">
         <v>1.31</v>
@@ -29932,7 +29932,7 @@
         <v>1.5</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU145" t="n">
         <v>1.91</v>
@@ -30338,7 +30338,7 @@
         <v>1</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU147" t="n">
         <v>1.49</v>
@@ -30741,7 +30741,7 @@
         <v>1.71</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT149" t="n">
         <v>1.67</v>
@@ -30947,7 +30947,7 @@
         <v>1.5</v>
       </c>
       <c r="AT150" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU150" t="n">
         <v>1.69</v>
@@ -31150,7 +31150,7 @@
         <v>1.92</v>
       </c>
       <c r="AT151" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU151" t="n">
         <v>2.14</v>
@@ -31350,7 +31350,7 @@
         <v>0.29</v>
       </c>
       <c r="AS152" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT152" t="n">
         <v>0.25</v>
@@ -31553,7 +31553,7 @@
         <v>2</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT153" t="n">
         <v>1.55</v>
@@ -31756,7 +31756,7 @@
         <v>1.63</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT154" t="n">
         <v>1.67</v>
@@ -31962,7 +31962,7 @@
         <v>0.92</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32165,7 +32165,7 @@
         <v>1.42</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU156" t="n">
         <v>1.61</v>
@@ -32365,7 +32365,7 @@
         <v>1.22</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT157" t="n">
         <v>1.38</v>
@@ -32568,7 +32568,7 @@
         <v>2</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT158" t="n">
         <v>1.46</v>
@@ -33180,7 +33180,7 @@
         <v>1.46</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU161" t="n">
         <v>1.85</v>
@@ -33380,7 +33380,7 @@
         <v>1.78</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT162" t="n">
         <v>1.46</v>
@@ -33786,7 +33786,7 @@
         <v>0.75</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT164" t="n">
         <v>1.17</v>
@@ -33989,7 +33989,7 @@
         <v>1.5</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT165" t="n">
         <v>1.36</v>
@@ -34192,10 +34192,10 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU166" t="n">
         <v>1.67</v>
@@ -34398,7 +34398,7 @@
         <v>1</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU167" t="n">
         <v>1.35</v>
@@ -34601,7 +34601,7 @@
         <v>1</v>
       </c>
       <c r="AT168" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU168" t="n">
         <v>1.53</v>
@@ -34804,7 +34804,7 @@
         <v>1.5</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU169" t="n">
         <v>1.83</v>
@@ -35007,7 +35007,7 @@
         <v>1.42</v>
       </c>
       <c r="AT170" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU170" t="n">
         <v>1.16</v>
@@ -35207,7 +35207,7 @@
         <v>0.25</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT171" t="n">
         <v>0.25</v>
@@ -36222,7 +36222,7 @@
         <v>1.78</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT176" t="n">
         <v>1.67</v>
@@ -36631,7 +36631,7 @@
         <v>1.42</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU178" t="n">
         <v>1.55</v>
@@ -36834,7 +36834,7 @@
         <v>1.5</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU179" t="n">
         <v>1.61</v>
@@ -37237,7 +37237,7 @@
         <v>1.33</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT181" t="n">
         <v>1.36</v>
@@ -37646,7 +37646,7 @@
         <v>1</v>
       </c>
       <c r="AT183" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU183" t="n">
         <v>1.39</v>
@@ -37849,7 +37849,7 @@
         <v>1.42</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU184" t="n">
         <v>1.26</v>
@@ -38049,7 +38049,7 @@
         <v>0.22</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT185" t="n">
         <v>0.25</v>
@@ -38252,10 +38252,10 @@
         <v>1.11</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU186" t="n">
         <v>1.76</v>
@@ -38455,10 +38455,10 @@
         <v>1</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU187" t="n">
         <v>1.56</v>
@@ -38658,10 +38658,10 @@
         <v>0.8</v>
       </c>
       <c r="AS188" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT188" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU188" t="n">
         <v>1.72</v>
@@ -39673,7 +39673,7 @@
         <v>1.2</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT193" t="n">
         <v>1.17</v>
@@ -40285,7 +40285,7 @@
         <v>1.5</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU196" t="n">
         <v>1.71</v>
@@ -40688,10 +40688,10 @@
         <v>1.2</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU198" t="n">
         <v>1.53</v>
@@ -40891,10 +40891,10 @@
         <v>0.8</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT199" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU199" t="n">
         <v>1.79</v>
@@ -41300,7 +41300,7 @@
         <v>1</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU201" t="n">
         <v>1.42</v>
@@ -41500,7 +41500,7 @@
         <v>1.5</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT202" t="n">
         <v>1.36</v>
@@ -41706,7 +41706,7 @@
         <v>1.42</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU203" t="n">
         <v>1.33</v>
@@ -41906,10 +41906,10 @@
         <v>1</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU204" t="n">
         <v>1.46</v>
@@ -42109,10 +42109,10 @@
         <v>0.82</v>
       </c>
       <c r="AS205" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT205" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU205" t="n">
         <v>1.52</v>
@@ -42312,10 +42312,10 @@
         <v>1.7</v>
       </c>
       <c r="AS206" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU206" t="n">
         <v>1.72</v>
@@ -44194,6 +44194,1630 @@
       </c>
       <c r="BK215" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2960439</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45002.64583333334</v>
+      </c>
+      <c r="F216" t="n">
+        <v>25</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Stade Briochin</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>2</v>
+      </c>
+      <c r="R216" t="n">
+        <v>1</v>
+      </c>
+      <c r="S216" t="n">
+        <v>3</v>
+      </c>
+      <c r="T216" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V216" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X216" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2960437</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45002.64583333334</v>
+      </c>
+      <c r="F217" t="n">
+        <v>25</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Châteauroux</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>7</v>
+      </c>
+      <c r="R217" t="n">
+        <v>5</v>
+      </c>
+      <c r="S217" t="n">
+        <v>12</v>
+      </c>
+      <c r="T217" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U217" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V217" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X217" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2960436</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45002.64583333334</v>
+      </c>
+      <c r="F218" t="n">
+        <v>25</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Le Puy F.43 Auvergne</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Paris 13 Atletico</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="n">
+        <v>2</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>1</v>
+      </c>
+      <c r="R218" t="n">
+        <v>6</v>
+      </c>
+      <c r="S218" t="n">
+        <v>7</v>
+      </c>
+      <c r="T218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V218" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2960434</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45002.64583333334</v>
+      </c>
+      <c r="F219" t="n">
+        <v>25</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Martigues</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>3</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>3</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['17', '85', '90+2']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>6</v>
+      </c>
+      <c r="R219" t="n">
+        <v>4</v>
+      </c>
+      <c r="S219" t="n">
+        <v>10</v>
+      </c>
+      <c r="T219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V219" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2960433</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45002.64583333334</v>
+      </c>
+      <c r="F220" t="n">
+        <v>25</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Bourg-en-Bresse</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="n">
+        <v>2</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>3</v>
+      </c>
+      <c r="R220" t="n">
+        <v>4</v>
+      </c>
+      <c r="S220" t="n">
+        <v>7</v>
+      </c>
+      <c r="T220" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U220" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V220" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X220" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2960432</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45002.64583333334</v>
+      </c>
+      <c r="F221" t="n">
+        <v>25</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Villefranche</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>2</v>
+      </c>
+      <c r="K221" t="n">
+        <v>2</v>
+      </c>
+      <c r="L221" t="n">
+        <v>3</v>
+      </c>
+      <c r="M221" t="n">
+        <v>2</v>
+      </c>
+      <c r="N221" t="n">
+        <v>5</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['55', '90+3', '90+6']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['23', '41']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>5</v>
+      </c>
+      <c r="R221" t="n">
+        <v>8</v>
+      </c>
+      <c r="S221" t="n">
+        <v>13</v>
+      </c>
+      <c r="T221" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2</v>
+      </c>
+      <c r="V221" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X221" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2960440</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45002.64583333334</v>
+      </c>
+      <c r="F222" t="n">
+        <v>25</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Orléans</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>2</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>2</v>
+      </c>
+      <c r="L222" t="n">
+        <v>2</v>
+      </c>
+      <c r="M222" t="n">
+        <v>2</v>
+      </c>
+      <c r="N222" t="n">
+        <v>4</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['27', '32']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['52', '65']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>9</v>
+      </c>
+      <c r="R222" t="n">
+        <v>4</v>
+      </c>
+      <c r="S222" t="n">
+        <v>13</v>
+      </c>
+      <c r="T222" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2</v>
+      </c>
+      <c r="V222" t="n">
+        <v>4</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X222" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2960438</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45003.60416666666</v>
+      </c>
+      <c r="F223" t="n">
+        <v>25</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Bastia-Borgo</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>2</v>
+      </c>
+      <c r="K223" t="n">
+        <v>2</v>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="n">
+        <v>2</v>
+      </c>
+      <c r="N223" t="n">
+        <v>3</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['22', '32']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>2</v>
+      </c>
+      <c r="R223" t="n">
+        <v>7</v>
+      </c>
+      <c r="S223" t="n">
+        <v>9</v>
+      </c>
+      <c r="T223" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V223" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X223" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France National_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France National_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="312">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -685,6 +685,18 @@
     <t>['27', '32']</t>
   </si>
   <si>
+    <t>['29', '35']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['82', '83', '90+1']</t>
+  </si>
+  <si>
     <t>['49', '90+3']</t>
   </si>
   <si>
@@ -695,9 +707,6 @@
   </si>
   <si>
     <t>['29', '63']</t>
-  </si>
-  <si>
-    <t>['69']</t>
   </si>
   <si>
     <t>['23']</t>
@@ -734,9 +743,6 @@
   </si>
   <si>
     <t>['47', '71']</t>
-  </si>
-  <si>
-    <t>['64']</t>
   </si>
   <si>
     <t>['20']</t>
@@ -935,6 +941,15 @@
   </si>
   <si>
     <t>['22', '32']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['18', '24', '27']</t>
+  </si>
+  <si>
+    <t>['7']</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK224"/>
+  <dimension ref="A1:BK231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1627,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT2">
         <v>0.6899999999999999</v>
@@ -2009,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT4">
         <v>1.31</v>
@@ -2203,7 +2218,7 @@
         <v>1.15</v>
       </c>
       <c r="AT5">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2391,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT6">
         <v>1.31</v>
@@ -2495,7 +2510,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2776,7 +2791,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2877,7 +2892,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3068,7 +3083,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3158,7 +3173,7 @@
         <v>1.42</v>
       </c>
       <c r="AT10">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3450,7 +3465,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3537,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT12">
         <v>1.25</v>
@@ -3728,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT13">
         <v>0.92</v>
@@ -3832,7 +3847,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3919,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT14">
         <v>0.92</v>
@@ -4023,7 +4038,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4113,7 +4128,7 @@
         <v>0.92</v>
       </c>
       <c r="AT15">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4495,7 +4510,7 @@
         <v>1.54</v>
       </c>
       <c r="AT17">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU17">
         <v>1.59</v>
@@ -4686,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="AT18">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5065,10 +5080,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT20">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU20">
         <v>1.56</v>
@@ -5259,7 +5274,7 @@
         <v>2.08</v>
       </c>
       <c r="AT21">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU21">
         <v>1.15</v>
@@ -5360,7 +5375,7 @@
         <v>83</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5551,7 +5566,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5641,7 +5656,7 @@
         <v>1.15</v>
       </c>
       <c r="AT23">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU23">
         <v>1.17</v>
@@ -6020,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT25">
         <v>0.6899999999999999</v>
@@ -6124,7 +6139,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6211,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT26">
         <v>1.46</v>
@@ -6315,7 +6330,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6405,7 +6420,7 @@
         <v>1.42</v>
       </c>
       <c r="AT27">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU27">
         <v>1.58</v>
@@ -6506,7 +6521,7 @@
         <v>83</v>
       </c>
       <c r="P28" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6593,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT28">
         <v>1.75</v>
@@ -6888,7 +6903,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7166,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT31">
         <v>0.92</v>
@@ -7270,7 +7285,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q32">
         <v>9</v>
@@ -7551,7 +7566,7 @@
         <v>1.33</v>
       </c>
       <c r="AT33">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU33">
         <v>1.17</v>
@@ -7742,7 +7757,7 @@
         <v>1.54</v>
       </c>
       <c r="AT34">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU34">
         <v>1.43</v>
@@ -8121,7 +8136,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT36">
         <v>1.31</v>
@@ -8416,7 +8431,7 @@
         <v>83</v>
       </c>
       <c r="P38" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8503,10 +8518,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT38">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU38">
         <v>2.29</v>
@@ -8607,7 +8622,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8694,7 +8709,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT39">
         <v>1.31</v>
@@ -8885,7 +8900,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT40">
         <v>1.46</v>
@@ -8989,7 +9004,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9079,7 +9094,7 @@
         <v>1.15</v>
       </c>
       <c r="AT41">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU41">
         <v>1.05</v>
@@ -9267,10 +9282,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT42">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU42">
         <v>1.78</v>
@@ -9461,7 +9476,7 @@
         <v>0.92</v>
       </c>
       <c r="AT43">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU43">
         <v>1.65</v>
@@ -9652,7 +9667,7 @@
         <v>2.08</v>
       </c>
       <c r="AT44">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU44">
         <v>1.61</v>
@@ -9944,7 +9959,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10031,7 +10046,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT46">
         <v>0.6899999999999999</v>
@@ -10517,7 +10532,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -10798,7 +10813,7 @@
         <v>1.42</v>
       </c>
       <c r="AT50">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU50">
         <v>1.41</v>
@@ -10899,7 +10914,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10986,7 +11001,7 @@
         <v>1.67</v>
       </c>
       <c r="AS51">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT51">
         <v>1.75</v>
@@ -11472,7 +11487,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11753,7 +11768,7 @@
         <v>2</v>
       </c>
       <c r="AT55">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU55">
         <v>1.66</v>
@@ -11854,7 +11869,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -11941,10 +11956,10 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT56">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU56">
         <v>1.3</v>
@@ -12045,7 +12060,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12236,7 +12251,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12326,7 +12341,7 @@
         <v>0.92</v>
       </c>
       <c r="AT58">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU58">
         <v>1.59</v>
@@ -12427,7 +12442,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12618,7 +12633,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q60">
         <v>1</v>
@@ -12705,7 +12720,7 @@
         <v>0.67</v>
       </c>
       <c r="AS60">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT60">
         <v>1.46</v>
@@ -12896,10 +12911,10 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT61">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU61">
         <v>1.69</v>
@@ -13087,10 +13102,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT62">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU62">
         <v>1.57</v>
@@ -13191,7 +13206,7 @@
         <v>83</v>
       </c>
       <c r="P63" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -13278,7 +13293,7 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT63">
         <v>1.31</v>
@@ -13469,10 +13484,10 @@
         <v>1.5</v>
       </c>
       <c r="AS64">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT64">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU64">
         <v>1.91</v>
@@ -13854,7 +13869,7 @@
         <v>1.15</v>
       </c>
       <c r="AT66">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU66">
         <v>1.1</v>
@@ -13955,7 +13970,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14146,7 +14161,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14528,7 +14543,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14719,7 +14734,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15379,7 +15394,7 @@
         <v>0.75</v>
       </c>
       <c r="AS74">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT74">
         <v>1.46</v>
@@ -15761,7 +15776,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT76">
         <v>1.17</v>
@@ -15865,7 +15880,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15952,10 +15967,10 @@
         <v>2</v>
       </c>
       <c r="AS77">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT77">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU77">
         <v>2</v>
@@ -16056,7 +16071,7 @@
         <v>83</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16143,10 +16158,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT78">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU78">
         <v>1.55</v>
@@ -16247,7 +16262,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16337,7 +16352,7 @@
         <v>0.92</v>
       </c>
       <c r="AT79">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU79">
         <v>1.52</v>
@@ -16438,7 +16453,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16525,10 +16540,10 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT80">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU80">
         <v>1.7</v>
@@ -16629,7 +16644,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16716,10 +16731,10 @@
         <v>1.5</v>
       </c>
       <c r="AS81">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT81">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU81">
         <v>1.84</v>
@@ -16820,7 +16835,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q82">
         <v>-1</v>
@@ -16907,10 +16922,10 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT82">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU82">
         <v>1.53</v>
@@ -17011,7 +17026,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17202,7 +17217,7 @@
         <v>83</v>
       </c>
       <c r="P84" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17393,7 +17408,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -18348,7 +18363,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18817,10 +18832,10 @@
         <v>0.5</v>
       </c>
       <c r="AS92">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT92">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU92">
         <v>1.78</v>
@@ -18921,7 +18936,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19008,10 +19023,10 @@
         <v>2.5</v>
       </c>
       <c r="AS93">
+        <v>1.38</v>
+      </c>
+      <c r="AT93">
         <v>1.5</v>
-      </c>
-      <c r="AT93">
-        <v>1.55</v>
       </c>
       <c r="AU93">
         <v>1.72</v>
@@ -19202,7 +19217,7 @@
         <v>2.08</v>
       </c>
       <c r="AT94">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU94">
         <v>1.82</v>
@@ -19303,7 +19318,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19390,7 +19405,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT95">
         <v>0.58</v>
@@ -19494,7 +19509,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19584,7 +19599,7 @@
         <v>0.92</v>
       </c>
       <c r="AT96">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU96">
         <v>1.42</v>
@@ -19772,10 +19787,10 @@
         <v>1.8</v>
       </c>
       <c r="AS97">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT97">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU97">
         <v>1.39</v>
@@ -19963,7 +19978,7 @@
         <v>1.25</v>
       </c>
       <c r="AS98">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT98">
         <v>1.17</v>
@@ -20154,10 +20169,10 @@
         <v>1.6</v>
       </c>
       <c r="AS99">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT99">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU99">
         <v>1.78</v>
@@ -20258,7 +20273,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20345,10 +20360,10 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT100">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU100">
         <v>1.8</v>
@@ -21109,7 +21124,7 @@
         <v>1.4</v>
       </c>
       <c r="AS104">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT104">
         <v>1.25</v>
@@ -21404,7 +21419,7 @@
         <v>154</v>
       </c>
       <c r="P106" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21494,7 +21509,7 @@
         <v>1.85</v>
       </c>
       <c r="AT106">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU106">
         <v>1.85</v>
@@ -21595,7 +21610,7 @@
         <v>155</v>
       </c>
       <c r="P107" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21786,7 +21801,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22168,7 +22183,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22255,10 +22270,10 @@
         <v>1.2</v>
       </c>
       <c r="AS110">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT110">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU110">
         <v>1.24</v>
@@ -22359,7 +22374,7 @@
         <v>158</v>
       </c>
       <c r="P111" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22637,10 +22652,10 @@
         <v>2.6</v>
       </c>
       <c r="AS112">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT112">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU112">
         <v>1.61</v>
@@ -22741,7 +22756,7 @@
         <v>83</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -22831,7 +22846,7 @@
         <v>1</v>
       </c>
       <c r="AT113">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU113">
         <v>1.35</v>
@@ -23019,7 +23034,7 @@
         <v>1</v>
       </c>
       <c r="AS114">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT114">
         <v>1.17</v>
@@ -23123,7 +23138,7 @@
         <v>161</v>
       </c>
       <c r="P115" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23213,7 +23228,7 @@
         <v>2.08</v>
       </c>
       <c r="AT115">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU115">
         <v>1.76</v>
@@ -23401,10 +23416,10 @@
         <v>0.4</v>
       </c>
       <c r="AS116">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT116">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU116">
         <v>1.6</v>
@@ -23505,7 +23520,7 @@
         <v>83</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23592,10 +23607,10 @@
         <v>1</v>
       </c>
       <c r="AS117">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT117">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU117">
         <v>1.69</v>
@@ -23696,7 +23711,7 @@
         <v>83</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23783,7 +23798,7 @@
         <v>0.17</v>
       </c>
       <c r="AS118">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT118">
         <v>0.58</v>
@@ -24078,7 +24093,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24165,7 +24180,7 @@
         <v>0.83</v>
       </c>
       <c r="AS120">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT120">
         <v>0.92</v>
@@ -24550,7 +24565,7 @@
         <v>1.85</v>
       </c>
       <c r="AT122">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU122">
         <v>2.03</v>
@@ -24842,7 +24857,7 @@
         <v>83</v>
       </c>
       <c r="P124" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25120,7 +25135,7 @@
         <v>0.83</v>
       </c>
       <c r="AS125">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT125">
         <v>0.92</v>
@@ -25224,7 +25239,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25314,7 +25329,7 @@
         <v>1.33</v>
       </c>
       <c r="AT126">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU126">
         <v>1.6</v>
@@ -25693,7 +25708,7 @@
         <v>1</v>
       </c>
       <c r="AS128">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT128">
         <v>1.08</v>
@@ -26075,10 +26090,10 @@
         <v>1.33</v>
       </c>
       <c r="AS130">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT130">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU130">
         <v>1.94</v>
@@ -26269,7 +26284,7 @@
         <v>1</v>
       </c>
       <c r="AT131">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU131">
         <v>1.4</v>
@@ -26457,7 +26472,7 @@
         <v>0.83</v>
       </c>
       <c r="AS132">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT132">
         <v>1.17</v>
@@ -26651,7 +26666,7 @@
         <v>0.92</v>
       </c>
       <c r="AT133">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU133">
         <v>1.7</v>
@@ -26839,7 +26854,7 @@
         <v>1.33</v>
       </c>
       <c r="AS134">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT134">
         <v>1.25</v>
@@ -27030,10 +27045,10 @@
         <v>0.33</v>
       </c>
       <c r="AS135">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT135">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU135">
         <v>1.42</v>
@@ -27224,7 +27239,7 @@
         <v>2.08</v>
       </c>
       <c r="AT136">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU136">
         <v>1.77</v>
@@ -27325,7 +27340,7 @@
         <v>83</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27797,7 +27812,7 @@
         <v>2</v>
       </c>
       <c r="AT139">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU139">
         <v>1.38</v>
@@ -27898,7 +27913,7 @@
         <v>172</v>
       </c>
       <c r="P140" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27985,7 +28000,7 @@
         <v>1.25</v>
       </c>
       <c r="AS140">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT140">
         <v>1.31</v>
@@ -28179,7 +28194,7 @@
         <v>1.85</v>
       </c>
       <c r="AT141">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU141">
         <v>2.09</v>
@@ -28471,7 +28486,7 @@
         <v>174</v>
       </c>
       <c r="P143" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28662,7 +28677,7 @@
         <v>175</v>
       </c>
       <c r="P144" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -28749,7 +28764,7 @@
         <v>1.75</v>
       </c>
       <c r="AS144">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT144">
         <v>1.75</v>
@@ -28940,7 +28955,7 @@
         <v>1.29</v>
       </c>
       <c r="AS145">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT145">
         <v>1.25</v>
@@ -29044,7 +29059,7 @@
         <v>177</v>
       </c>
       <c r="P146" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29131,10 +29146,10 @@
         <v>1.29</v>
       </c>
       <c r="AS146">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT146">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU146">
         <v>1.16</v>
@@ -29235,7 +29250,7 @@
         <v>178</v>
       </c>
       <c r="P147" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29322,7 +29337,7 @@
         <v>0.86</v>
       </c>
       <c r="AS147">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT147">
         <v>1.08</v>
@@ -29707,7 +29722,7 @@
         <v>1.33</v>
       </c>
       <c r="AT149">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU149">
         <v>1.62</v>
@@ -29895,7 +29910,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT150">
         <v>0.92</v>
@@ -29999,7 +30014,7 @@
         <v>181</v>
       </c>
       <c r="P151" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30280,7 +30295,7 @@
         <v>2.08</v>
       </c>
       <c r="AT152">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU152">
         <v>1.63</v>
@@ -30381,7 +30396,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -30471,7 +30486,7 @@
         <v>0.92</v>
       </c>
       <c r="AT153">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU153">
         <v>1.7</v>
@@ -30572,7 +30587,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q154">
         <v>11</v>
@@ -30662,7 +30677,7 @@
         <v>2</v>
       </c>
       <c r="AT154">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU154">
         <v>1.44</v>
@@ -31041,7 +31056,7 @@
         <v>1.89</v>
       </c>
       <c r="AS156">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT156">
         <v>1.75</v>
@@ -31145,7 +31160,7 @@
         <v>83</v>
       </c>
       <c r="P157" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q157">
         <v>8</v>
@@ -31235,7 +31250,7 @@
         <v>1.42</v>
       </c>
       <c r="AT157">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU157">
         <v>1.41</v>
@@ -31426,7 +31441,7 @@
         <v>1.15</v>
       </c>
       <c r="AT158">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU158">
         <v>1.27</v>
@@ -31614,7 +31629,7 @@
         <v>0.63</v>
       </c>
       <c r="AS159">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT159">
         <v>0.58</v>
@@ -31808,7 +31823,7 @@
         <v>2.08</v>
       </c>
       <c r="AT160">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU160">
         <v>1.8</v>
@@ -31996,7 +32011,7 @@
         <v>1.44</v>
       </c>
       <c r="AS161">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT161">
         <v>1.31</v>
@@ -32190,7 +32205,7 @@
         <v>1.54</v>
       </c>
       <c r="AT162">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU162">
         <v>1.53</v>
@@ -32378,7 +32393,7 @@
         <v>1.56</v>
       </c>
       <c r="AS163">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT163">
         <v>1.46</v>
@@ -32482,7 +32497,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q164">
         <v>7</v>
@@ -32673,7 +32688,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -32763,7 +32778,7 @@
         <v>0.92</v>
       </c>
       <c r="AT165">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU165">
         <v>1.62</v>
@@ -33246,7 +33261,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33333,7 +33348,7 @@
         <v>0.78</v>
       </c>
       <c r="AS168">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT168">
         <v>0.92</v>
@@ -33524,7 +33539,7 @@
         <v>1.44</v>
       </c>
       <c r="AS169">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT169">
         <v>1.31</v>
@@ -33715,7 +33730,7 @@
         <v>0.88</v>
       </c>
       <c r="AS170">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT170">
         <v>0.92</v>
@@ -33909,7 +33924,7 @@
         <v>1.33</v>
       </c>
       <c r="AT171">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU171">
         <v>1.59</v>
@@ -34010,7 +34025,7 @@
         <v>198</v>
       </c>
       <c r="P172" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q172">
         <v>1</v>
@@ -34100,7 +34115,7 @@
         <v>1.85</v>
       </c>
       <c r="AT172">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU172">
         <v>2.04</v>
@@ -34201,7 +34216,7 @@
         <v>199</v>
       </c>
       <c r="P173" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34288,10 +34303,10 @@
         <v>1.7</v>
       </c>
       <c r="AS173">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT173">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU173">
         <v>1.27</v>
@@ -34392,7 +34407,7 @@
         <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34482,7 +34497,7 @@
         <v>2.08</v>
       </c>
       <c r="AT174">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU174">
         <v>1.74</v>
@@ -34864,7 +34879,7 @@
         <v>1.15</v>
       </c>
       <c r="AT176">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU176">
         <v>1.33</v>
@@ -35052,7 +35067,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS177">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT177">
         <v>0.58</v>
@@ -35156,7 +35171,7 @@
         <v>85</v>
       </c>
       <c r="P178" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q178">
         <v>0</v>
@@ -35243,7 +35258,7 @@
         <v>1.3</v>
       </c>
       <c r="AS178">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT178">
         <v>1.31</v>
@@ -35434,7 +35449,7 @@
         <v>0.8</v>
       </c>
       <c r="AS179">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT179">
         <v>0.6899999999999999</v>
@@ -35625,10 +35640,10 @@
         <v>1.1</v>
       </c>
       <c r="AS180">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT180">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU180">
         <v>1.82</v>
@@ -35729,7 +35744,7 @@
         <v>148</v>
       </c>
       <c r="P181" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35819,7 +35834,7 @@
         <v>1.54</v>
       </c>
       <c r="AT181">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU181">
         <v>1.53</v>
@@ -35920,7 +35935,7 @@
         <v>83</v>
       </c>
       <c r="P182" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q182">
         <v>9</v>
@@ -36389,7 +36404,7 @@
         <v>1.3</v>
       </c>
       <c r="AS184">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT184">
         <v>1.31</v>
@@ -36583,7 +36598,7 @@
         <v>2</v>
       </c>
       <c r="AT185">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU185">
         <v>1.46</v>
@@ -36875,7 +36890,7 @@
         <v>83</v>
       </c>
       <c r="P187" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37066,7 +37081,7 @@
         <v>206</v>
       </c>
       <c r="P188" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37257,7 +37272,7 @@
         <v>86</v>
       </c>
       <c r="P189" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q189">
         <v>2</v>
@@ -37344,10 +37359,10 @@
         <v>1.27</v>
       </c>
       <c r="AS189">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT189">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU189">
         <v>1.88</v>
@@ -37448,7 +37463,7 @@
         <v>83</v>
       </c>
       <c r="P190" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37535,7 +37550,7 @@
         <v>1.36</v>
       </c>
       <c r="AS190">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT190">
         <v>1.46</v>
@@ -37726,10 +37741,10 @@
         <v>1</v>
       </c>
       <c r="AS191">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT191">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU191">
         <v>1.54</v>
@@ -37917,7 +37932,7 @@
         <v>0.6</v>
       </c>
       <c r="AS192">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT192">
         <v>0.58</v>
@@ -38299,10 +38314,10 @@
         <v>1.6</v>
       </c>
       <c r="AS194">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT194">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU194">
         <v>1.32</v>
@@ -38493,7 +38508,7 @@
         <v>0.92</v>
       </c>
       <c r="AT195">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU195">
         <v>1.41</v>
@@ -38594,7 +38609,7 @@
         <v>133</v>
       </c>
       <c r="P196" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q196">
         <v>7</v>
@@ -38681,7 +38696,7 @@
         <v>1.27</v>
       </c>
       <c r="AS196">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT196">
         <v>1.31</v>
@@ -38785,7 +38800,7 @@
         <v>83</v>
       </c>
       <c r="P197" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -38875,7 +38890,7 @@
         <v>2.08</v>
       </c>
       <c r="AT197">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU197">
         <v>1.66</v>
@@ -39167,7 +39182,7 @@
         <v>105</v>
       </c>
       <c r="P199" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39448,7 +39463,7 @@
         <v>1.85</v>
       </c>
       <c r="AT200">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU200">
         <v>2.06</v>
@@ -39549,7 +39564,7 @@
         <v>210</v>
       </c>
       <c r="P201" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39830,7 +39845,7 @@
         <v>1.42</v>
       </c>
       <c r="AT202">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU202">
         <v>1.39</v>
@@ -40018,7 +40033,7 @@
         <v>0.73</v>
       </c>
       <c r="AS203">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT203">
         <v>0.6899999999999999</v>
@@ -40313,7 +40328,7 @@
         <v>83</v>
       </c>
       <c r="P205" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -40504,7 +40519,7 @@
         <v>83</v>
       </c>
       <c r="P206" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q206">
         <v>4</v>
@@ -40695,7 +40710,7 @@
         <v>148</v>
       </c>
       <c r="P207" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -40782,10 +40797,10 @@
         <v>1.25</v>
       </c>
       <c r="AS207">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT207">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU207">
         <v>1.5</v>
@@ -40886,7 +40901,7 @@
         <v>83</v>
       </c>
       <c r="P208" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q208">
         <v>3</v>
@@ -40976,7 +40991,7 @@
         <v>0.92</v>
       </c>
       <c r="AT208">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU208">
         <v>1.48</v>
@@ -41077,7 +41092,7 @@
         <v>119</v>
       </c>
       <c r="P209" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41164,7 +41179,7 @@
         <v>1.18</v>
       </c>
       <c r="AS209">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT209">
         <v>1.17</v>
@@ -41268,7 +41283,7 @@
         <v>214</v>
       </c>
       <c r="P210" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q210">
         <v>3</v>
@@ -41355,10 +41370,10 @@
         <v>1</v>
       </c>
       <c r="AS210">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT210">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU210">
         <v>1.76</v>
@@ -41546,7 +41561,7 @@
         <v>0.64</v>
       </c>
       <c r="AS211">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT211">
         <v>0.58</v>
@@ -41737,10 +41752,10 @@
         <v>1.5</v>
       </c>
       <c r="AS212">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT212">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU212">
         <v>1.52</v>
@@ -41841,7 +41856,7 @@
         <v>216</v>
       </c>
       <c r="P213" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q213">
         <v>6</v>
@@ -41928,10 +41943,10 @@
         <v>1.7</v>
       </c>
       <c r="AS213">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT213">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU213">
         <v>1.83</v>
@@ -42032,7 +42047,7 @@
         <v>217</v>
       </c>
       <c r="P214" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -42119,7 +42134,7 @@
         <v>1.5</v>
       </c>
       <c r="AS214">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT214">
         <v>1.46</v>
@@ -42313,7 +42328,7 @@
         <v>2.08</v>
       </c>
       <c r="AT215">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU215">
         <v>1.58</v>
@@ -42605,7 +42620,7 @@
         <v>83</v>
       </c>
       <c r="P217" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q217">
         <v>7</v>
@@ -43369,7 +43384,7 @@
         <v>221</v>
       </c>
       <c r="P221" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q221">
         <v>5</v>
@@ -43560,7 +43575,7 @@
         <v>222</v>
       </c>
       <c r="P222" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q222">
         <v>9</v>
@@ -43751,7 +43766,7 @@
         <v>158</v>
       </c>
       <c r="P223" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q223">
         <v>2</v>
@@ -44032,7 +44047,7 @@
         <v>1.85</v>
       </c>
       <c r="AT224">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU224">
         <v>2.05</v>
@@ -44084,6 +44099,1343 @@
       </c>
       <c r="BK224">
         <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>2960446</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45009.60416666666</v>
+      </c>
+      <c r="F225">
+        <v>26</v>
+      </c>
+      <c r="G225" t="s">
+        <v>76</v>
+      </c>
+      <c r="H225" t="s">
+        <v>74</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>2</v>
+      </c>
+      <c r="L225">
+        <v>2</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>3</v>
+      </c>
+      <c r="O225" t="s">
+        <v>223</v>
+      </c>
+      <c r="P225" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>4</v>
+      </c>
+      <c r="S225">
+        <v>4</v>
+      </c>
+      <c r="T225">
+        <v>2.6</v>
+      </c>
+      <c r="U225">
+        <v>2</v>
+      </c>
+      <c r="V225">
+        <v>4.33</v>
+      </c>
+      <c r="W225">
+        <v>1.45</v>
+      </c>
+      <c r="X225">
+        <v>2.6</v>
+      </c>
+      <c r="Y225">
+        <v>3</v>
+      </c>
+      <c r="Z225">
+        <v>1.35</v>
+      </c>
+      <c r="AA225">
+        <v>7</v>
+      </c>
+      <c r="AB225">
+        <v>1.07</v>
+      </c>
+      <c r="AC225">
+        <v>1.67</v>
+      </c>
+      <c r="AD225">
+        <v>3.3</v>
+      </c>
+      <c r="AE225">
+        <v>4.8</v>
+      </c>
+      <c r="AF225">
+        <v>1.04</v>
+      </c>
+      <c r="AG225">
+        <v>7.8</v>
+      </c>
+      <c r="AH225">
+        <v>1.35</v>
+      </c>
+      <c r="AI225">
+        <v>2.84</v>
+      </c>
+      <c r="AJ225">
+        <v>2.1</v>
+      </c>
+      <c r="AK225">
+        <v>1.67</v>
+      </c>
+      <c r="AL225">
+        <v>1.97</v>
+      </c>
+      <c r="AM225">
+        <v>1.71</v>
+      </c>
+      <c r="AN225">
+        <v>1.22</v>
+      </c>
+      <c r="AO225">
+        <v>1.29</v>
+      </c>
+      <c r="AP225">
+        <v>1.84</v>
+      </c>
+      <c r="AQ225">
+        <v>1.5</v>
+      </c>
+      <c r="AR225">
+        <v>1.38</v>
+      </c>
+      <c r="AS225">
+        <v>1.62</v>
+      </c>
+      <c r="AT225">
+        <v>1.29</v>
+      </c>
+      <c r="AU225">
+        <v>1.72</v>
+      </c>
+      <c r="AV225">
+        <v>1.28</v>
+      </c>
+      <c r="AW225">
+        <v>3</v>
+      </c>
+      <c r="AX225">
+        <v>1.5</v>
+      </c>
+      <c r="AY225">
+        <v>7.5</v>
+      </c>
+      <c r="AZ225">
+        <v>3.14</v>
+      </c>
+      <c r="BA225">
+        <v>1.48</v>
+      </c>
+      <c r="BB225">
+        <v>1.83</v>
+      </c>
+      <c r="BC225">
+        <v>2.26</v>
+      </c>
+      <c r="BD225">
+        <v>3.2</v>
+      </c>
+      <c r="BE225">
+        <v>0</v>
+      </c>
+      <c r="BF225">
+        <v>4</v>
+      </c>
+      <c r="BG225">
+        <v>8</v>
+      </c>
+      <c r="BH225">
+        <v>7</v>
+      </c>
+      <c r="BI225">
+        <v>5</v>
+      </c>
+      <c r="BJ225">
+        <v>11</v>
+      </c>
+      <c r="BK225">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>2960447</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45009.60416666666</v>
+      </c>
+      <c r="F226">
+        <v>26</v>
+      </c>
+      <c r="G226" t="s">
+        <v>69</v>
+      </c>
+      <c r="H226" t="s">
+        <v>72</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+      <c r="N226">
+        <v>2</v>
+      </c>
+      <c r="O226" t="s">
+        <v>144</v>
+      </c>
+      <c r="P226" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q226">
+        <v>-1</v>
+      </c>
+      <c r="R226">
+        <v>-1</v>
+      </c>
+      <c r="S226">
+        <v>-1</v>
+      </c>
+      <c r="T226">
+        <v>3.5</v>
+      </c>
+      <c r="U226">
+        <v>1.95</v>
+      </c>
+      <c r="V226">
+        <v>3.1</v>
+      </c>
+      <c r="W226">
+        <v>1.44</v>
+      </c>
+      <c r="X226">
+        <v>2.62</v>
+      </c>
+      <c r="Y226">
+        <v>3</v>
+      </c>
+      <c r="Z226">
+        <v>1.36</v>
+      </c>
+      <c r="AA226">
+        <v>7.5</v>
+      </c>
+      <c r="AB226">
+        <v>1.07</v>
+      </c>
+      <c r="AC226">
+        <v>2.25</v>
+      </c>
+      <c r="AD226">
+        <v>3</v>
+      </c>
+      <c r="AE226">
+        <v>2.9</v>
+      </c>
+      <c r="AF226">
+        <v>1.08</v>
+      </c>
+      <c r="AG226">
+        <v>7</v>
+      </c>
+      <c r="AH226">
+        <v>1.36</v>
+      </c>
+      <c r="AI226">
+        <v>3</v>
+      </c>
+      <c r="AJ226">
+        <v>2.15</v>
+      </c>
+      <c r="AK226">
+        <v>1.61</v>
+      </c>
+      <c r="AL226">
+        <v>1.91</v>
+      </c>
+      <c r="AM226">
+        <v>1.8</v>
+      </c>
+      <c r="AN226">
+        <v>1.5</v>
+      </c>
+      <c r="AO226">
+        <v>1.32</v>
+      </c>
+      <c r="AP226">
+        <v>1.38</v>
+      </c>
+      <c r="AQ226">
+        <v>1.85</v>
+      </c>
+      <c r="AR226">
+        <v>1.33</v>
+      </c>
+      <c r="AS226">
+        <v>1.79</v>
+      </c>
+      <c r="AT226">
+        <v>1.31</v>
+      </c>
+      <c r="AU226">
+        <v>1.29</v>
+      </c>
+      <c r="AV226">
+        <v>1.24</v>
+      </c>
+      <c r="AW226">
+        <v>2.53</v>
+      </c>
+      <c r="AX226">
+        <v>2.01</v>
+      </c>
+      <c r="AY226">
+        <v>7.1</v>
+      </c>
+      <c r="AZ226">
+        <v>2.09</v>
+      </c>
+      <c r="BA226">
+        <v>1.33</v>
+      </c>
+      <c r="BB226">
+        <v>1.68</v>
+      </c>
+      <c r="BC226">
+        <v>2.08</v>
+      </c>
+      <c r="BD226">
+        <v>2.75</v>
+      </c>
+      <c r="BE226">
+        <v>3.92</v>
+      </c>
+      <c r="BF226">
+        <v>-1</v>
+      </c>
+      <c r="BG226">
+        <v>-1</v>
+      </c>
+      <c r="BH226">
+        <v>-1</v>
+      </c>
+      <c r="BI226">
+        <v>-1</v>
+      </c>
+      <c r="BJ226">
+        <v>-1</v>
+      </c>
+      <c r="BK226">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>2960441</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45009.60416666666</v>
+      </c>
+      <c r="F227">
+        <v>26</v>
+      </c>
+      <c r="G227" t="s">
+        <v>65</v>
+      </c>
+      <c r="H227" t="s">
+        <v>68</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="O227" t="s">
+        <v>83</v>
+      </c>
+      <c r="P227" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q227">
+        <v>6</v>
+      </c>
+      <c r="R227">
+        <v>1</v>
+      </c>
+      <c r="S227">
+        <v>7</v>
+      </c>
+      <c r="T227">
+        <v>1.91</v>
+      </c>
+      <c r="U227">
+        <v>2.25</v>
+      </c>
+      <c r="V227">
+        <v>7</v>
+      </c>
+      <c r="W227">
+        <v>1.37</v>
+      </c>
+      <c r="X227">
+        <v>3.14</v>
+      </c>
+      <c r="Y227">
+        <v>2.85</v>
+      </c>
+      <c r="Z227">
+        <v>1.43</v>
+      </c>
+      <c r="AA227">
+        <v>6.55</v>
+      </c>
+      <c r="AB227">
+        <v>1.09</v>
+      </c>
+      <c r="AC227">
+        <v>1.36</v>
+      </c>
+      <c r="AD227">
+        <v>4.25</v>
+      </c>
+      <c r="AE227">
+        <v>8</v>
+      </c>
+      <c r="AF227">
+        <v>1.03</v>
+      </c>
+      <c r="AG227">
+        <v>13.75</v>
+      </c>
+      <c r="AH227">
+        <v>1.25</v>
+      </c>
+      <c r="AI227">
+        <v>3.75</v>
+      </c>
+      <c r="AJ227">
+        <v>1.75</v>
+      </c>
+      <c r="AK227">
+        <v>1.95</v>
+      </c>
+      <c r="AL227">
+        <v>2.05</v>
+      </c>
+      <c r="AM227">
+        <v>1.73</v>
+      </c>
+      <c r="AN227">
+        <v>1.06</v>
+      </c>
+      <c r="AO227">
+        <v>1.17</v>
+      </c>
+      <c r="AP227">
+        <v>2.86</v>
+      </c>
+      <c r="AQ227">
+        <v>1.46</v>
+      </c>
+      <c r="AR227">
+        <v>0.25</v>
+      </c>
+      <c r="AS227">
+        <v>1.36</v>
+      </c>
+      <c r="AT227">
+        <v>0.46</v>
+      </c>
+      <c r="AU227">
+        <v>1.79</v>
+      </c>
+      <c r="AV227">
+        <v>0.82</v>
+      </c>
+      <c r="AW227">
+        <v>2.61</v>
+      </c>
+      <c r="AX227">
+        <v>1.17</v>
+      </c>
+      <c r="AY227">
+        <v>12.5</v>
+      </c>
+      <c r="AZ227">
+        <v>5.5</v>
+      </c>
+      <c r="BA227">
+        <v>1.26</v>
+      </c>
+      <c r="BB227">
+        <v>1.57</v>
+      </c>
+      <c r="BC227">
+        <v>1.94</v>
+      </c>
+      <c r="BD227">
+        <v>2.44</v>
+      </c>
+      <c r="BE227">
+        <v>3.34</v>
+      </c>
+      <c r="BF227">
+        <v>4</v>
+      </c>
+      <c r="BG227">
+        <v>4</v>
+      </c>
+      <c r="BH227">
+        <v>8</v>
+      </c>
+      <c r="BI227">
+        <v>0</v>
+      </c>
+      <c r="BJ227">
+        <v>12</v>
+      </c>
+      <c r="BK227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>2960442</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45009.60416666666</v>
+      </c>
+      <c r="F228">
+        <v>26</v>
+      </c>
+      <c r="G228" t="s">
+        <v>82</v>
+      </c>
+      <c r="H228" t="s">
+        <v>66</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>3</v>
+      </c>
+      <c r="K228">
+        <v>3</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>3</v>
+      </c>
+      <c r="N228">
+        <v>4</v>
+      </c>
+      <c r="O228" t="s">
+        <v>224</v>
+      </c>
+      <c r="P228" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q228">
+        <v>5</v>
+      </c>
+      <c r="R228">
+        <v>5</v>
+      </c>
+      <c r="S228">
+        <v>10</v>
+      </c>
+      <c r="T228">
+        <v>3.4</v>
+      </c>
+      <c r="U228">
+        <v>2</v>
+      </c>
+      <c r="V228">
+        <v>3.2</v>
+      </c>
+      <c r="W228">
+        <v>1.44</v>
+      </c>
+      <c r="X228">
+        <v>2.62</v>
+      </c>
+      <c r="Y228">
+        <v>3</v>
+      </c>
+      <c r="Z228">
+        <v>1.36</v>
+      </c>
+      <c r="AA228">
+        <v>7.5</v>
+      </c>
+      <c r="AB228">
+        <v>1.07</v>
+      </c>
+      <c r="AC228">
+        <v>2.4</v>
+      </c>
+      <c r="AD228">
+        <v>2.9</v>
+      </c>
+      <c r="AE228">
+        <v>2.75</v>
+      </c>
+      <c r="AF228">
+        <v>1.08</v>
+      </c>
+      <c r="AG228">
+        <v>7</v>
+      </c>
+      <c r="AH228">
+        <v>1.36</v>
+      </c>
+      <c r="AI228">
+        <v>3</v>
+      </c>
+      <c r="AJ228">
+        <v>2.15</v>
+      </c>
+      <c r="AK228">
+        <v>1.61</v>
+      </c>
+      <c r="AL228">
+        <v>1.91</v>
+      </c>
+      <c r="AM228">
+        <v>1.8</v>
+      </c>
+      <c r="AN228">
+        <v>1.4</v>
+      </c>
+      <c r="AO228">
+        <v>1.32</v>
+      </c>
+      <c r="AP228">
+        <v>1.5</v>
+      </c>
+      <c r="AQ228">
+        <v>1.5</v>
+      </c>
+      <c r="AR228">
+        <v>1.67</v>
+      </c>
+      <c r="AS228">
+        <v>1.38</v>
+      </c>
+      <c r="AT228">
+        <v>1.77</v>
+      </c>
+      <c r="AU228">
+        <v>1.52</v>
+      </c>
+      <c r="AV228">
+        <v>1.47</v>
+      </c>
+      <c r="AW228">
+        <v>2.99</v>
+      </c>
+      <c r="AX228">
+        <v>0</v>
+      </c>
+      <c r="AY228">
+        <v>0</v>
+      </c>
+      <c r="AZ228">
+        <v>0</v>
+      </c>
+      <c r="BA228">
+        <v>0</v>
+      </c>
+      <c r="BB228">
+        <v>0</v>
+      </c>
+      <c r="BC228">
+        <v>0</v>
+      </c>
+      <c r="BD228">
+        <v>0</v>
+      </c>
+      <c r="BE228">
+        <v>0</v>
+      </c>
+      <c r="BF228">
+        <v>9</v>
+      </c>
+      <c r="BG228">
+        <v>5</v>
+      </c>
+      <c r="BH228">
+        <v>5</v>
+      </c>
+      <c r="BI228">
+        <v>6</v>
+      </c>
+      <c r="BJ228">
+        <v>14</v>
+      </c>
+      <c r="BK228">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>2960444</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45009.60416666666</v>
+      </c>
+      <c r="F229">
+        <v>26</v>
+      </c>
+      <c r="G229" t="s">
+        <v>67</v>
+      </c>
+      <c r="H229" t="s">
+        <v>71</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>144</v>
+      </c>
+      <c r="P229" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q229">
+        <v>3</v>
+      </c>
+      <c r="R229">
+        <v>2</v>
+      </c>
+      <c r="S229">
+        <v>5</v>
+      </c>
+      <c r="T229">
+        <v>3.5</v>
+      </c>
+      <c r="U229">
+        <v>2</v>
+      </c>
+      <c r="V229">
+        <v>3</v>
+      </c>
+      <c r="W229">
+        <v>1.44</v>
+      </c>
+      <c r="X229">
+        <v>2.62</v>
+      </c>
+      <c r="Y229">
+        <v>3</v>
+      </c>
+      <c r="Z229">
+        <v>1.36</v>
+      </c>
+      <c r="AA229">
+        <v>7.5</v>
+      </c>
+      <c r="AB229">
+        <v>1.07</v>
+      </c>
+      <c r="AC229">
+        <v>3</v>
+      </c>
+      <c r="AD229">
+        <v>2.9</v>
+      </c>
+      <c r="AE229">
+        <v>2.25</v>
+      </c>
+      <c r="AF229">
+        <v>1.08</v>
+      </c>
+      <c r="AG229">
+        <v>7</v>
+      </c>
+      <c r="AH229">
+        <v>1.4</v>
+      </c>
+      <c r="AI229">
+        <v>2.75</v>
+      </c>
+      <c r="AJ229">
+        <v>2.2</v>
+      </c>
+      <c r="AK229">
+        <v>1.6</v>
+      </c>
+      <c r="AL229">
+        <v>2</v>
+      </c>
+      <c r="AM229">
+        <v>1.73</v>
+      </c>
+      <c r="AN229">
+        <v>1.6</v>
+      </c>
+      <c r="AO229">
+        <v>1.32</v>
+      </c>
+      <c r="AP229">
+        <v>1.32</v>
+      </c>
+      <c r="AQ229">
+        <v>1.42</v>
+      </c>
+      <c r="AR229">
+        <v>1.55</v>
+      </c>
+      <c r="AS229">
+        <v>1.38</v>
+      </c>
+      <c r="AT229">
+        <v>1.5</v>
+      </c>
+      <c r="AU229">
+        <v>1.46</v>
+      </c>
+      <c r="AV229">
+        <v>1.58</v>
+      </c>
+      <c r="AW229">
+        <v>3.04</v>
+      </c>
+      <c r="AX229">
+        <v>2.23</v>
+      </c>
+      <c r="AY229">
+        <v>6.85</v>
+      </c>
+      <c r="AZ229">
+        <v>1.91</v>
+      </c>
+      <c r="BA229">
+        <v>1.55</v>
+      </c>
+      <c r="BB229">
+        <v>1.93</v>
+      </c>
+      <c r="BC229">
+        <v>2.44</v>
+      </c>
+      <c r="BD229">
+        <v>3.48</v>
+      </c>
+      <c r="BE229">
+        <v>0</v>
+      </c>
+      <c r="BF229">
+        <v>8</v>
+      </c>
+      <c r="BG229">
+        <v>5</v>
+      </c>
+      <c r="BH229">
+        <v>8</v>
+      </c>
+      <c r="BI229">
+        <v>8</v>
+      </c>
+      <c r="BJ229">
+        <v>16</v>
+      </c>
+      <c r="BK229">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>2960445</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45009.60416666666</v>
+      </c>
+      <c r="F230">
+        <v>26</v>
+      </c>
+      <c r="G230" t="s">
+        <v>77</v>
+      </c>
+      <c r="H230" t="s">
+        <v>78</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>1</v>
+      </c>
+      <c r="O230" t="s">
+        <v>225</v>
+      </c>
+      <c r="P230" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q230">
+        <v>1</v>
+      </c>
+      <c r="R230">
+        <v>3</v>
+      </c>
+      <c r="S230">
+        <v>4</v>
+      </c>
+      <c r="T230">
+        <v>3.1</v>
+      </c>
+      <c r="U230">
+        <v>1.91</v>
+      </c>
+      <c r="V230">
+        <v>3.75</v>
+      </c>
+      <c r="W230">
+        <v>1.44</v>
+      </c>
+      <c r="X230">
+        <v>2.62</v>
+      </c>
+      <c r="Y230">
+        <v>3.25</v>
+      </c>
+      <c r="Z230">
+        <v>1.33</v>
+      </c>
+      <c r="AA230">
+        <v>8</v>
+      </c>
+      <c r="AB230">
+        <v>1.06</v>
+      </c>
+      <c r="AC230">
+        <v>2.55</v>
+      </c>
+      <c r="AD230">
+        <v>2.9</v>
+      </c>
+      <c r="AE230">
+        <v>2.55</v>
+      </c>
+      <c r="AF230">
+        <v>1.1</v>
+      </c>
+      <c r="AG230">
+        <v>6.5</v>
+      </c>
+      <c r="AH230">
+        <v>1.4</v>
+      </c>
+      <c r="AI230">
+        <v>2.75</v>
+      </c>
+      <c r="AJ230">
+        <v>2.15</v>
+      </c>
+      <c r="AK230">
+        <v>1.61</v>
+      </c>
+      <c r="AL230">
+        <v>2</v>
+      </c>
+      <c r="AM230">
+        <v>1.73</v>
+      </c>
+      <c r="AN230">
+        <v>1.38</v>
+      </c>
+      <c r="AO230">
+        <v>1.29</v>
+      </c>
+      <c r="AP230">
+        <v>1.38</v>
+      </c>
+      <c r="AQ230">
+        <v>1</v>
+      </c>
+      <c r="AR230">
+        <v>1.46</v>
+      </c>
+      <c r="AS230">
+        <v>1.17</v>
+      </c>
+      <c r="AT230">
+        <v>1.36</v>
+      </c>
+      <c r="AU230">
+        <v>1.48</v>
+      </c>
+      <c r="AV230">
+        <v>1.4</v>
+      </c>
+      <c r="AW230">
+        <v>2.88</v>
+      </c>
+      <c r="AX230">
+        <v>1.93</v>
+      </c>
+      <c r="AY230">
+        <v>6.9</v>
+      </c>
+      <c r="AZ230">
+        <v>2.2</v>
+      </c>
+      <c r="BA230">
+        <v>1.55</v>
+      </c>
+      <c r="BB230">
+        <v>1.96</v>
+      </c>
+      <c r="BC230">
+        <v>2.45</v>
+      </c>
+      <c r="BD230">
+        <v>3.56</v>
+      </c>
+      <c r="BE230">
+        <v>0</v>
+      </c>
+      <c r="BF230">
+        <v>2</v>
+      </c>
+      <c r="BG230">
+        <v>3</v>
+      </c>
+      <c r="BH230">
+        <v>4</v>
+      </c>
+      <c r="BI230">
+        <v>1</v>
+      </c>
+      <c r="BJ230">
+        <v>6</v>
+      </c>
+      <c r="BK230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>2960449</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45009.60416666666</v>
+      </c>
+      <c r="F231">
+        <v>26</v>
+      </c>
+      <c r="G231" t="s">
+        <v>75</v>
+      </c>
+      <c r="H231" t="s">
+        <v>80</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>3</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>4</v>
+      </c>
+      <c r="O231" t="s">
+        <v>226</v>
+      </c>
+      <c r="P231" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q231">
+        <v>9</v>
+      </c>
+      <c r="R231">
+        <v>4</v>
+      </c>
+      <c r="S231">
+        <v>13</v>
+      </c>
+      <c r="T231">
+        <v>2.88</v>
+      </c>
+      <c r="U231">
+        <v>2.05</v>
+      </c>
+      <c r="V231">
+        <v>3.75</v>
+      </c>
+      <c r="W231">
+        <v>1.44</v>
+      </c>
+      <c r="X231">
+        <v>2.62</v>
+      </c>
+      <c r="Y231">
+        <v>3</v>
+      </c>
+      <c r="Z231">
+        <v>1.36</v>
+      </c>
+      <c r="AA231">
+        <v>7.5</v>
+      </c>
+      <c r="AB231">
+        <v>1.07</v>
+      </c>
+      <c r="AC231">
+        <v>2.15</v>
+      </c>
+      <c r="AD231">
+        <v>3</v>
+      </c>
+      <c r="AE231">
+        <v>3.1</v>
+      </c>
+      <c r="AF231">
+        <v>1.08</v>
+      </c>
+      <c r="AG231">
+        <v>7</v>
+      </c>
+      <c r="AH231">
+        <v>1.4</v>
+      </c>
+      <c r="AI231">
+        <v>2.75</v>
+      </c>
+      <c r="AJ231">
+        <v>2.15</v>
+      </c>
+      <c r="AK231">
+        <v>1.61</v>
+      </c>
+      <c r="AL231">
+        <v>1.91</v>
+      </c>
+      <c r="AM231">
+        <v>1.8</v>
+      </c>
+      <c r="AN231">
+        <v>1.28</v>
+      </c>
+      <c r="AO231">
+        <v>1.28</v>
+      </c>
+      <c r="AP231">
+        <v>1.57</v>
+      </c>
+      <c r="AQ231">
+        <v>1.42</v>
+      </c>
+      <c r="AR231">
+        <v>1.15</v>
+      </c>
+      <c r="AS231">
+        <v>1.54</v>
+      </c>
+      <c r="AT231">
+        <v>1.07</v>
+      </c>
+      <c r="AU231">
+        <v>1.36</v>
+      </c>
+      <c r="AV231">
+        <v>1.18</v>
+      </c>
+      <c r="AW231">
+        <v>2.54</v>
+      </c>
+      <c r="AX231">
+        <v>1.67</v>
+      </c>
+      <c r="AY231">
+        <v>7.4</v>
+      </c>
+      <c r="AZ231">
+        <v>2.61</v>
+      </c>
+      <c r="BA231">
+        <v>1.4</v>
+      </c>
+      <c r="BB231">
+        <v>1.76</v>
+      </c>
+      <c r="BC231">
+        <v>2.21</v>
+      </c>
+      <c r="BD231">
+        <v>3.04</v>
+      </c>
+      <c r="BE231">
+        <v>3.85</v>
+      </c>
+      <c r="BF231">
+        <v>5</v>
+      </c>
+      <c r="BG231">
+        <v>4</v>
+      </c>
+      <c r="BH231">
+        <v>10</v>
+      </c>
+      <c r="BI231">
+        <v>7</v>
+      </c>
+      <c r="BJ231">
+        <v>15</v>
+      </c>
+      <c r="BK231">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France National_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France National_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="313">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,9 @@
     <t>['82', '83', '90+1']</t>
   </si>
   <si>
+    <t>['26', '41', '68']</t>
+  </si>
+  <si>
     <t>['49', '90+3']</t>
   </si>
   <si>
@@ -1311,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK231"/>
+  <dimension ref="A1:BK232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1836,7 +1839,7 @@
         <v>1.54</v>
       </c>
       <c r="AT3">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2510,7 +2513,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2892,7 +2895,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3083,7 +3086,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3465,7 +3468,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -4038,7 +4041,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4316,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT16">
         <v>1.08</v>
@@ -5375,7 +5378,7 @@
         <v>83</v>
       </c>
       <c r="P22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5566,7 +5569,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5847,7 +5850,7 @@
         <v>2</v>
       </c>
       <c r="AT24">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU24">
         <v>1.46</v>
@@ -6139,7 +6142,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6330,7 +6333,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6521,7 +6524,7 @@
         <v>83</v>
       </c>
       <c r="P28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6799,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT29">
         <v>0.92</v>
@@ -6903,7 +6906,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7285,7 +7288,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q32">
         <v>9</v>
@@ -8431,7 +8434,7 @@
         <v>83</v>
       </c>
       <c r="P38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8622,7 +8625,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -9004,7 +9007,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9858,7 +9861,7 @@
         <v>1.42</v>
       </c>
       <c r="AT45">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU45">
         <v>1.18</v>
@@ -9959,7 +9962,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10428,7 +10431,7 @@
         <v>0.67</v>
       </c>
       <c r="AS48">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT48">
         <v>1.31</v>
@@ -10914,7 +10917,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11487,7 +11490,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11869,7 +11872,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -12060,7 +12063,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12251,7 +12254,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12442,7 +12445,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12532,7 +12535,7 @@
         <v>1.15</v>
       </c>
       <c r="AT59">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU59">
         <v>1.23</v>
@@ -12633,7 +12636,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q60">
         <v>1</v>
@@ -13206,7 +13209,7 @@
         <v>83</v>
       </c>
       <c r="P63" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -13970,7 +13973,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14161,7 +14164,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14543,7 +14546,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14630,7 +14633,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT70">
         <v>0.6899999999999999</v>
@@ -14734,7 +14737,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15588,7 +15591,7 @@
         <v>2.08</v>
       </c>
       <c r="AT75">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU75">
         <v>1.47</v>
@@ -15880,7 +15883,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -16071,7 +16074,7 @@
         <v>83</v>
       </c>
       <c r="P78" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16262,7 +16265,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16453,7 +16456,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16644,7 +16647,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16835,7 +16838,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q82">
         <v>-1</v>
@@ -17026,7 +17029,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17217,7 +17220,7 @@
         <v>83</v>
       </c>
       <c r="P84" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17408,7 +17411,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -18363,7 +18366,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18936,7 +18939,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19214,7 +19217,7 @@
         <v>1</v>
       </c>
       <c r="AS94">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT94">
         <v>1.07</v>
@@ -19318,7 +19321,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19408,7 +19411,7 @@
         <v>1.79</v>
       </c>
       <c r="AT95">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU95">
         <v>1.53</v>
@@ -19509,7 +19512,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -20273,7 +20276,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -21419,7 +21422,7 @@
         <v>154</v>
       </c>
       <c r="P106" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21610,7 +21613,7 @@
         <v>155</v>
       </c>
       <c r="P107" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21801,7 +21804,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22183,7 +22186,7 @@
         <v>157</v>
       </c>
       <c r="P110" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22374,7 +22377,7 @@
         <v>158</v>
       </c>
       <c r="P111" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22756,7 +22759,7 @@
         <v>83</v>
       </c>
       <c r="P113" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -23138,7 +23141,7 @@
         <v>161</v>
       </c>
       <c r="P115" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23225,7 +23228,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT115">
         <v>1.29</v>
@@ -23520,7 +23523,7 @@
         <v>83</v>
       </c>
       <c r="P117" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23711,7 +23714,7 @@
         <v>83</v>
       </c>
       <c r="P118" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23801,7 +23804,7 @@
         <v>1.36</v>
       </c>
       <c r="AT118">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU118">
         <v>1.75</v>
@@ -24093,7 +24096,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q120">
         <v>9</v>
@@ -24857,7 +24860,7 @@
         <v>83</v>
       </c>
       <c r="P124" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25239,7 +25242,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25902,7 +25905,7 @@
         <v>0.92</v>
       </c>
       <c r="AT129">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU129">
         <v>1.44</v>
@@ -27236,7 +27239,7 @@
         <v>2.33</v>
       </c>
       <c r="AS136">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT136">
         <v>1.5</v>
@@ -27340,7 +27343,7 @@
         <v>83</v>
       </c>
       <c r="P137" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27913,7 +27916,7 @@
         <v>172</v>
       </c>
       <c r="P140" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28486,7 +28489,7 @@
         <v>174</v>
       </c>
       <c r="P143" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28677,7 +28680,7 @@
         <v>175</v>
       </c>
       <c r="P144" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -29059,7 +29062,7 @@
         <v>177</v>
       </c>
       <c r="P146" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29250,7 +29253,7 @@
         <v>178</v>
       </c>
       <c r="P147" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -30014,7 +30017,7 @@
         <v>181</v>
       </c>
       <c r="P151" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30292,7 +30295,7 @@
         <v>0.29</v>
       </c>
       <c r="AS152">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT152">
         <v>0.46</v>
@@ -30396,7 +30399,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -30587,7 +30590,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q154">
         <v>11</v>
@@ -31160,7 +31163,7 @@
         <v>83</v>
       </c>
       <c r="P157" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q157">
         <v>8</v>
@@ -31632,7 +31635,7 @@
         <v>1.38</v>
       </c>
       <c r="AT159">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU159">
         <v>1.69</v>
@@ -32497,7 +32500,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q164">
         <v>7</v>
@@ -32688,7 +32691,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -32966,7 +32969,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT166">
         <v>1.25</v>
@@ -33261,7 +33264,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -34025,7 +34028,7 @@
         <v>198</v>
       </c>
       <c r="P172" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q172">
         <v>1</v>
@@ -34216,7 +34219,7 @@
         <v>199</v>
       </c>
       <c r="P173" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34407,7 +34410,7 @@
         <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -35070,7 +35073,7 @@
         <v>1.62</v>
       </c>
       <c r="AT177">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU177">
         <v>1.75</v>
@@ -35171,7 +35174,7 @@
         <v>85</v>
       </c>
       <c r="P178" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q178">
         <v>0</v>
@@ -35744,7 +35747,7 @@
         <v>148</v>
       </c>
       <c r="P181" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35935,7 +35938,7 @@
         <v>83</v>
       </c>
       <c r="P182" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q182">
         <v>9</v>
@@ -36890,7 +36893,7 @@
         <v>83</v>
       </c>
       <c r="P187" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37081,7 +37084,7 @@
         <v>206</v>
       </c>
       <c r="P188" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37168,7 +37171,7 @@
         <v>0.8</v>
       </c>
       <c r="AS188">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT188">
         <v>0.92</v>
@@ -37463,7 +37466,7 @@
         <v>83</v>
       </c>
       <c r="P190" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37935,7 +37938,7 @@
         <v>1.17</v>
       </c>
       <c r="AT192">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU192">
         <v>1.58</v>
@@ -38609,7 +38612,7 @@
         <v>133</v>
       </c>
       <c r="P196" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q196">
         <v>7</v>
@@ -38800,7 +38803,7 @@
         <v>83</v>
       </c>
       <c r="P197" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39182,7 +39185,7 @@
         <v>105</v>
       </c>
       <c r="P199" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39564,7 +39567,7 @@
         <v>210</v>
       </c>
       <c r="P201" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -40328,7 +40331,7 @@
         <v>83</v>
       </c>
       <c r="P205" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -40519,7 +40522,7 @@
         <v>83</v>
       </c>
       <c r="P206" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q206">
         <v>4</v>
@@ -40606,7 +40609,7 @@
         <v>1.7</v>
       </c>
       <c r="AS206">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT206">
         <v>1.75</v>
@@ -40710,7 +40713,7 @@
         <v>148</v>
       </c>
       <c r="P207" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -40901,7 +40904,7 @@
         <v>83</v>
       </c>
       <c r="P208" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q208">
         <v>3</v>
@@ -41092,7 +41095,7 @@
         <v>119</v>
       </c>
       <c r="P209" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41283,7 +41286,7 @@
         <v>214</v>
       </c>
       <c r="P210" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q210">
         <v>3</v>
@@ -41564,7 +41567,7 @@
         <v>1.54</v>
       </c>
       <c r="AT211">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU211">
         <v>1.35</v>
@@ -41856,7 +41859,7 @@
         <v>216</v>
       </c>
       <c r="P213" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q213">
         <v>6</v>
@@ -42047,7 +42050,7 @@
         <v>217</v>
       </c>
       <c r="P214" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -42620,7 +42623,7 @@
         <v>83</v>
       </c>
       <c r="P217" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q217">
         <v>7</v>
@@ -43089,7 +43092,7 @@
         <v>1.42</v>
       </c>
       <c r="AS219">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT219">
         <v>1.31</v>
@@ -43384,7 +43387,7 @@
         <v>221</v>
       </c>
       <c r="P221" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q221">
         <v>5</v>
@@ -43575,7 +43578,7 @@
         <v>222</v>
       </c>
       <c r="P222" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q222">
         <v>9</v>
@@ -43766,7 +43769,7 @@
         <v>158</v>
       </c>
       <c r="P223" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q223">
         <v>2</v>
@@ -44148,7 +44151,7 @@
         <v>223</v>
       </c>
       <c r="P225" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q225">
         <v>0</v>
@@ -44530,7 +44533,7 @@
         <v>83</v>
       </c>
       <c r="P227" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q227">
         <v>6</v>
@@ -44721,7 +44724,7 @@
         <v>224</v>
       </c>
       <c r="P228" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q228">
         <v>5</v>
@@ -44912,7 +44915,7 @@
         <v>144</v>
       </c>
       <c r="P229" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q229">
         <v>3</v>
@@ -45436,6 +45439,197 @@
       </c>
       <c r="BK231">
         <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>2960443</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45012.5625</v>
+      </c>
+      <c r="F232">
+        <v>26</v>
+      </c>
+      <c r="G232" t="s">
+        <v>79</v>
+      </c>
+      <c r="H232" t="s">
+        <v>81</v>
+      </c>
+      <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>3</v>
+      </c>
+      <c r="L232">
+        <v>3</v>
+      </c>
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232">
+        <v>4</v>
+      </c>
+      <c r="O232" t="s">
+        <v>227</v>
+      </c>
+      <c r="P232" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q232">
+        <v>7</v>
+      </c>
+      <c r="R232">
+        <v>1</v>
+      </c>
+      <c r="S232">
+        <v>8</v>
+      </c>
+      <c r="T232">
+        <v>2.88</v>
+      </c>
+      <c r="U232">
+        <v>2.05</v>
+      </c>
+      <c r="V232">
+        <v>3.75</v>
+      </c>
+      <c r="W232">
+        <v>1.45</v>
+      </c>
+      <c r="X232">
+        <v>2.72</v>
+      </c>
+      <c r="Y232">
+        <v>3.28</v>
+      </c>
+      <c r="Z232">
+        <v>1.33</v>
+      </c>
+      <c r="AA232">
+        <v>8.4</v>
+      </c>
+      <c r="AB232">
+        <v>1.05</v>
+      </c>
+      <c r="AC232">
+        <v>2.2</v>
+      </c>
+      <c r="AD232">
+        <v>3.2</v>
+      </c>
+      <c r="AE232">
+        <v>3.3</v>
+      </c>
+      <c r="AF232">
+        <v>1.08</v>
+      </c>
+      <c r="AG232">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH232">
+        <v>1.4</v>
+      </c>
+      <c r="AI232">
+        <v>2.83</v>
+      </c>
+      <c r="AJ232">
+        <v>2.2</v>
+      </c>
+      <c r="AK232">
+        <v>1.65</v>
+      </c>
+      <c r="AL232">
+        <v>1.9</v>
+      </c>
+      <c r="AM232">
+        <v>1.82</v>
+      </c>
+      <c r="AN232">
+        <v>1.35</v>
+      </c>
+      <c r="AO232">
+        <v>1.32</v>
+      </c>
+      <c r="AP232">
+        <v>1.55</v>
+      </c>
+      <c r="AQ232">
+        <v>2.08</v>
+      </c>
+      <c r="AR232">
+        <v>0.58</v>
+      </c>
+      <c r="AS232">
+        <v>2.15</v>
+      </c>
+      <c r="AT232">
+        <v>0.54</v>
+      </c>
+      <c r="AU232">
+        <v>1.66</v>
+      </c>
+      <c r="AV232">
+        <v>1.41</v>
+      </c>
+      <c r="AW232">
+        <v>3.07</v>
+      </c>
+      <c r="AX232">
+        <v>0</v>
+      </c>
+      <c r="AY232">
+        <v>0</v>
+      </c>
+      <c r="AZ232">
+        <v>0</v>
+      </c>
+      <c r="BA232">
+        <v>1.76</v>
+      </c>
+      <c r="BB232">
+        <v>2.25</v>
+      </c>
+      <c r="BC232">
+        <v>0</v>
+      </c>
+      <c r="BD232">
+        <v>0</v>
+      </c>
+      <c r="BE232">
+        <v>0</v>
+      </c>
+      <c r="BF232">
+        <v>8</v>
+      </c>
+      <c r="BG232">
+        <v>4</v>
+      </c>
+      <c r="BH232">
+        <v>8</v>
+      </c>
+      <c r="BI232">
+        <v>5</v>
+      </c>
+      <c r="BJ232">
+        <v>16</v>
+      </c>
+      <c r="BK232">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France National_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France National_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK234"/>
+  <dimension ref="A1:BK243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.36</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT3" t="n">
         <v>0.54</v>
@@ -1309,7 +1309,7 @@
         <v>1.38</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT5" t="n">
         <v>1.07</v>
@@ -1715,7 +1715,7 @@
         <v>1.79</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0.92</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT8" t="n">
         <v>1.29</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT10" t="n">
         <v>1.36</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT11" t="n">
         <v>1.17</v>
@@ -2933,7 +2933,7 @@
         <v>1.54</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.62</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.08</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT15" t="n">
         <v>0.46</v>
@@ -3745,7 +3745,7 @@
         <v>2.15</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT17" t="n">
         <v>1.46</v>
@@ -4351,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT21" t="n">
         <v>1.36</v>
@@ -4963,7 +4963,7 @@
         <v>0.92</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU22" t="n">
         <v>1.42</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT23" t="n">
         <v>1.29</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT24" t="n">
         <v>0.54</v>
@@ -5572,7 +5572,7 @@
         <v>1.38</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU25" t="n">
         <v>1.47</v>
@@ -5775,7 +5775,7 @@
         <v>1.36</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU26" t="n">
         <v>1.72</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT27" t="n">
         <v>1.77</v>
@@ -6181,7 +6181,7 @@
         <v>1.38</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>2.15</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU29" t="n">
         <v>1.94</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU30" t="n">
         <v>1.69</v>
@@ -6790,7 +6790,7 @@
         <v>1.54</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU31" t="n">
         <v>1.61</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT32" t="n">
         <v>1.17</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT33" t="n">
         <v>1.31</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT34" t="n">
         <v>0.46</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>2.36</v>
@@ -7805,7 +7805,7 @@
         <v>1.08</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU36" t="n">
         <v>1.73</v>
@@ -8005,10 +8005,10 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU37" t="n">
         <v>1.82</v>
@@ -8414,7 +8414,7 @@
         <v>1.38</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU39" t="n">
         <v>1.46</v>
@@ -8617,7 +8617,7 @@
         <v>1.38</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU40" t="n">
         <v>1.53</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT41" t="n">
         <v>1.46</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT44" t="n">
         <v>1.77</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT45" t="n">
         <v>0.54</v>
@@ -9835,7 +9835,7 @@
         <v>1.62</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU46" t="n">
         <v>1.71</v>
@@ -10035,10 +10035,10 @@
         <v>1.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU47" t="n">
         <v>1.48</v>
@@ -10241,7 +10241,7 @@
         <v>2.15</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU48" t="n">
         <v>2.08</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU49" t="n">
         <v>1.54</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT50" t="n">
         <v>0.46</v>
@@ -10850,7 +10850,7 @@
         <v>1.54</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -11050,10 +11050,10 @@
         <v>3</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU52" t="n">
         <v>1.49</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>1.48</v>
@@ -11456,10 +11456,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU54" t="n">
         <v>2.17</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT55" t="n">
         <v>1.31</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT57" t="n">
         <v>1.17</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT59" t="n">
         <v>0.54</v>
@@ -12677,7 +12677,7 @@
         <v>1.62</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU60" t="n">
         <v>1.68</v>
@@ -13286,7 +13286,7 @@
         <v>1.08</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU63" t="n">
         <v>1.47</v>
@@ -13689,10 +13689,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU65" t="n">
         <v>1.44</v>
@@ -13892,7 +13892,7 @@
         <v>0.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT66" t="n">
         <v>1.31</v>
@@ -14095,10 +14095,10 @@
         <v>0.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.32</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU68" t="n">
         <v>1.29</v>
@@ -14501,10 +14501,10 @@
         <v>2.25</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU69" t="n">
         <v>1.74</v>
@@ -14707,7 +14707,7 @@
         <v>2.15</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU70" t="n">
         <v>1.87</v>
@@ -14907,10 +14907,10 @@
         <v>0.75</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU71" t="n">
         <v>1.98</v>
@@ -15110,10 +15110,10 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15313,10 +15313,10 @@
         <v>2.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU73" t="n">
         <v>1.61</v>
@@ -15519,7 +15519,7 @@
         <v>1.54</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU74" t="n">
         <v>1.5</v>
@@ -15719,7 +15719,7 @@
         <v>0.25</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT75" t="n">
         <v>0.54</v>
@@ -17343,10 +17343,10 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU83" t="n">
         <v>1.58</v>
@@ -17546,10 +17546,10 @@
         <v>0.8</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU84" t="n">
         <v>1.85</v>
@@ -17749,10 +17749,10 @@
         <v>0.8</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU85" t="n">
         <v>1.87</v>
@@ -17955,7 +17955,7 @@
         <v>1</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU86" t="n">
         <v>1.27</v>
@@ -18155,10 +18155,10 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU87" t="n">
         <v>1.31</v>
@@ -18358,10 +18358,10 @@
         <v>1.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU88" t="n">
         <v>1.04</v>
@@ -18561,10 +18561,10 @@
         <v>0.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU89" t="n">
         <v>1.45</v>
@@ -18764,10 +18764,10 @@
         <v>0.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU90" t="n">
         <v>1.53</v>
@@ -18967,10 +18967,10 @@
         <v>1.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU91" t="n">
         <v>1.42</v>
@@ -20997,10 +20997,10 @@
         <v>1.67</v>
       </c>
       <c r="AS101" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU101" t="n">
         <v>1.48</v>
@@ -21200,10 +21200,10 @@
         <v>1.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU102" t="n">
         <v>1.34</v>
@@ -21403,10 +21403,10 @@
         <v>0.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU103" t="n">
         <v>1.64</v>
@@ -21609,7 +21609,7 @@
         <v>1.79</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU104" t="n">
         <v>1.4</v>
@@ -21809,10 +21809,10 @@
         <v>1.17</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU105" t="n">
         <v>1.59</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT106" t="n">
         <v>1.07</v>
@@ -22215,10 +22215,10 @@
         <v>0.83</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU107" t="n">
         <v>1.79</v>
@@ -22418,10 +22418,10 @@
         <v>0.4</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU108" t="n">
         <v>1.09</v>
@@ -22621,10 +22621,10 @@
         <v>1.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU109" t="n">
         <v>1.3</v>
@@ -23030,7 +23030,7 @@
         <v>0.92</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.41</v>
@@ -24651,10 +24651,10 @@
         <v>1.43</v>
       </c>
       <c r="AS119" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU119" t="n">
         <v>1.38</v>
@@ -24857,7 +24857,7 @@
         <v>1.36</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU120" t="n">
         <v>1.86</v>
@@ -25057,10 +25057,10 @@
         <v>1.14</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU121" t="n">
         <v>1.56</v>
@@ -25260,7 +25260,7 @@
         <v>2.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT122" t="n">
         <v>1.36</v>
@@ -25463,10 +25463,10 @@
         <v>1.14</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU123" t="n">
         <v>1.37</v>
@@ -25666,10 +25666,10 @@
         <v>1.57</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU124" t="n">
         <v>1.17</v>
@@ -25872,7 +25872,7 @@
         <v>1.79</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU125" t="n">
         <v>1.35</v>
@@ -26072,7 +26072,7 @@
         <v>0.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT126" t="n">
         <v>1.07</v>
@@ -26275,10 +26275,10 @@
         <v>1.43</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU127" t="n">
         <v>1.83</v>
@@ -26481,7 +26481,7 @@
         <v>1.38</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU128" t="n">
         <v>1.73</v>
@@ -27493,7 +27493,7 @@
         <v>1.43</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT133" t="n">
         <v>1.29</v>
@@ -27699,7 +27699,7 @@
         <v>1.38</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU134" t="n">
         <v>1.64</v>
@@ -28305,10 +28305,10 @@
         <v>1.25</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU137" t="n">
         <v>1.18</v>
@@ -28508,10 +28508,10 @@
         <v>1</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU138" t="n">
         <v>1.79</v>
@@ -28711,7 +28711,7 @@
         <v>1.13</v>
       </c>
       <c r="AS139" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT139" t="n">
         <v>1.07</v>
@@ -28917,7 +28917,7 @@
         <v>1.36</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU140" t="n">
         <v>1.92</v>
@@ -29117,7 +29117,7 @@
         <v>1.38</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT141" t="n">
         <v>1.29</v>
@@ -29323,7 +29323,7 @@
         <v>0.92</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU142" t="n">
         <v>1.43</v>
@@ -29523,10 +29523,10 @@
         <v>1.38</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU143" t="n">
         <v>1.38</v>
@@ -29729,7 +29729,7 @@
         <v>1.79</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU144" t="n">
         <v>1.31</v>
@@ -29932,7 +29932,7 @@
         <v>1.62</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU145" t="n">
         <v>1.91</v>
@@ -30338,7 +30338,7 @@
         <v>1.08</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU147" t="n">
         <v>1.49</v>
@@ -30741,7 +30741,7 @@
         <v>1.71</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT149" t="n">
         <v>1.77</v>
@@ -30947,7 +30947,7 @@
         <v>1.38</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU150" t="n">
         <v>1.69</v>
@@ -31147,10 +31147,10 @@
         <v>0.75</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU151" t="n">
         <v>2.14</v>
@@ -31553,7 +31553,7 @@
         <v>2</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT153" t="n">
         <v>1.46</v>
@@ -31756,7 +31756,7 @@
         <v>1.63</v>
       </c>
       <c r="AS154" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT154" t="n">
         <v>1.77</v>
@@ -31962,7 +31962,7 @@
         <v>0.92</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32165,7 +32165,7 @@
         <v>1.38</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU156" t="n">
         <v>1.61</v>
@@ -32365,7 +32365,7 @@
         <v>1.22</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT157" t="n">
         <v>1.29</v>
@@ -32568,7 +32568,7 @@
         <v>2</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT158" t="n">
         <v>1.36</v>
@@ -32974,7 +32974,7 @@
         <v>1.11</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT160" t="n">
         <v>1.07</v>
@@ -33180,7 +33180,7 @@
         <v>1.36</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU161" t="n">
         <v>1.85</v>
@@ -33380,7 +33380,7 @@
         <v>1.78</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT162" t="n">
         <v>1.36</v>
@@ -33586,7 +33586,7 @@
         <v>1.79</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU163" t="n">
         <v>1.27</v>
@@ -33786,7 +33786,7 @@
         <v>0.75</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT164" t="n">
         <v>1.17</v>
@@ -33989,7 +33989,7 @@
         <v>1.5</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT165" t="n">
         <v>1.31</v>
@@ -34195,7 +34195,7 @@
         <v>2.15</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU166" t="n">
         <v>1.67</v>
@@ -34398,7 +34398,7 @@
         <v>1</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU167" t="n">
         <v>1.35</v>
@@ -34601,7 +34601,7 @@
         <v>1.08</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU168" t="n">
         <v>1.53</v>
@@ -34804,7 +34804,7 @@
         <v>1.62</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU169" t="n">
         <v>1.83</v>
@@ -35007,7 +35007,7 @@
         <v>1.54</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU170" t="n">
         <v>1.16</v>
@@ -35207,7 +35207,7 @@
         <v>0.25</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT171" t="n">
         <v>0.46</v>
@@ -35410,7 +35410,7 @@
         <v>1.75</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT172" t="n">
         <v>1.46</v>
@@ -35816,7 +35816,7 @@
         <v>1.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT174" t="n">
         <v>1.29</v>
@@ -36022,7 +36022,7 @@
         <v>0.92</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU175" t="n">
         <v>1.42</v>
@@ -36222,7 +36222,7 @@
         <v>1.78</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT176" t="n">
         <v>1.77</v>
@@ -36631,7 +36631,7 @@
         <v>1.38</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU178" t="n">
         <v>1.55</v>
@@ -36834,7 +36834,7 @@
         <v>1.38</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU179" t="n">
         <v>1.61</v>
@@ -37237,7 +37237,7 @@
         <v>1.33</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT181" t="n">
         <v>1.31</v>
@@ -37440,7 +37440,7 @@
         <v>1</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT182" t="n">
         <v>1.17</v>
@@ -37646,7 +37646,7 @@
         <v>1</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU183" t="n">
         <v>1.39</v>
@@ -37849,7 +37849,7 @@
         <v>1.54</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU184" t="n">
         <v>1.26</v>
@@ -38049,7 +38049,7 @@
         <v>0.22</v>
       </c>
       <c r="AS185" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT185" t="n">
         <v>0.46</v>
@@ -38252,10 +38252,10 @@
         <v>1.11</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU186" t="n">
         <v>1.76</v>
@@ -38455,10 +38455,10 @@
         <v>1</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU187" t="n">
         <v>1.56</v>
@@ -38661,7 +38661,7 @@
         <v>2.15</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU188" t="n">
         <v>1.72</v>
@@ -39067,7 +39067,7 @@
         <v>1.38</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU190" t="n">
         <v>1.57</v>
@@ -39673,7 +39673,7 @@
         <v>1.2</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT193" t="n">
         <v>1.17</v>
@@ -40285,7 +40285,7 @@
         <v>1.62</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU196" t="n">
         <v>1.71</v>
@@ -40485,7 +40485,7 @@
         <v>1.56</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT197" t="n">
         <v>1.46</v>
@@ -40688,10 +40688,10 @@
         <v>1.2</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU198" t="n">
         <v>1.53</v>
@@ -40891,10 +40891,10 @@
         <v>0.8</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU199" t="n">
         <v>1.79</v>
@@ -41094,7 +41094,7 @@
         <v>0.2</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT200" t="n">
         <v>0.46</v>
@@ -41300,7 +41300,7 @@
         <v>1</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU201" t="n">
         <v>1.42</v>
@@ -41500,7 +41500,7 @@
         <v>1.5</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT202" t="n">
         <v>1.31</v>
@@ -41706,7 +41706,7 @@
         <v>1.54</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU203" t="n">
         <v>1.33</v>
@@ -41906,10 +41906,10 @@
         <v>1</v>
       </c>
       <c r="AS204" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU204" t="n">
         <v>1.46</v>
@@ -42109,10 +42109,10 @@
         <v>0.82</v>
       </c>
       <c r="AS205" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU205" t="n">
         <v>1.52</v>
@@ -42315,7 +42315,7 @@
         <v>2.15</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU206" t="n">
         <v>1.72</v>
@@ -43127,7 +43127,7 @@
         <v>1.08</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU210" t="n">
         <v>1.51</v>
@@ -44139,7 +44139,7 @@
         <v>0.27</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT215" t="n">
         <v>0.46</v>
@@ -44342,10 +44342,10 @@
         <v>1</v>
       </c>
       <c r="AS216" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU216" t="n">
         <v>1.47</v>
@@ -44545,10 +44545,10 @@
         <v>1.09</v>
       </c>
       <c r="AS217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT217" t="n">
         <v>1.38</v>
-      </c>
-      <c r="AT217" t="n">
-        <v>1.25</v>
       </c>
       <c r="AU217" t="n">
         <v>1.4</v>
@@ -44751,7 +44751,7 @@
         <v>1</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU218" t="n">
         <v>1.46</v>
@@ -44954,7 +44954,7 @@
         <v>2.15</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU219" t="n">
         <v>1.66</v>
@@ -45154,10 +45154,10 @@
         <v>1.82</v>
       </c>
       <c r="AS220" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU220" t="n">
         <v>1.49</v>
@@ -45357,10 +45357,10 @@
         <v>1</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU221" t="n">
         <v>1.52</v>
@@ -45560,10 +45560,10 @@
         <v>1.33</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU222" t="n">
         <v>1.76</v>
@@ -45763,10 +45763,10 @@
         <v>0.91</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU223" t="n">
         <v>1.28</v>
@@ -45966,7 +45966,7 @@
         <v>1.36</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT224" t="n">
         <v>1.31</v>
@@ -47796,7 +47796,7 @@
         <v>1.08</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU233" t="n">
         <v>1.43</v>
@@ -47996,7 +47996,7 @@
         <v>1.5</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT234" t="n">
         <v>1.46</v>
@@ -48051,6 +48051,1833 @@
       </c>
       <c r="BK234" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2960480</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45016.60416666666</v>
+      </c>
+      <c r="F235" t="n">
+        <v>27</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Le Puy F.43 Auvergne</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Martigues</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="n">
+        <v>2</v>
+      </c>
+      <c r="M235" t="n">
+        <v>2</v>
+      </c>
+      <c r="N235" t="n">
+        <v>4</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['45', '70']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['58', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>3</v>
+      </c>
+      <c r="R235" t="n">
+        <v>3</v>
+      </c>
+      <c r="S235" t="n">
+        <v>6</v>
+      </c>
+      <c r="T235" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2</v>
+      </c>
+      <c r="V235" t="n">
+        <v>3</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X235" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2960479</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45016.60416666666</v>
+      </c>
+      <c r="F236" t="n">
+        <v>27</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="n">
+        <v>2</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>2</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['5', '73']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>4</v>
+      </c>
+      <c r="R236" t="n">
+        <v>7</v>
+      </c>
+      <c r="S236" t="n">
+        <v>11</v>
+      </c>
+      <c r="T236" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V236" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X236" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2960482</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45016.60416666666</v>
+      </c>
+      <c r="F237" t="n">
+        <v>27</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Bastia-Borgo</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Stade Briochin</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="n">
+        <v>2</v>
+      </c>
+      <c r="M237" t="n">
+        <v>3</v>
+      </c>
+      <c r="N237" t="n">
+        <v>5</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['34', '54']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['50', '58', '83']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>3</v>
+      </c>
+      <c r="R237" t="n">
+        <v>2</v>
+      </c>
+      <c r="S237" t="n">
+        <v>5</v>
+      </c>
+      <c r="T237" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2</v>
+      </c>
+      <c r="V237" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2960478</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45016.60416666666</v>
+      </c>
+      <c r="F238" t="n">
+        <v>27</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Bourg-en-Bresse</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="n">
+        <v>2</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="n">
+        <v>3</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['8', '86']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>2</v>
+      </c>
+      <c r="R238" t="n">
+        <v>5</v>
+      </c>
+      <c r="S238" t="n">
+        <v>7</v>
+      </c>
+      <c r="T238" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2</v>
+      </c>
+      <c r="V238" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X238" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2960477</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45017.60416666666</v>
+      </c>
+      <c r="F239" t="n">
+        <v>27</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>3</v>
+      </c>
+      <c r="R239" t="n">
+        <v>5</v>
+      </c>
+      <c r="S239" t="n">
+        <v>8</v>
+      </c>
+      <c r="T239" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2</v>
+      </c>
+      <c r="V239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X239" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2960484</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45017.60416666666</v>
+      </c>
+      <c r="F240" t="n">
+        <v>27</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Orléans</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Paris 13 Atletico</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>8</v>
+      </c>
+      <c r="R240" t="n">
+        <v>4</v>
+      </c>
+      <c r="S240" t="n">
+        <v>12</v>
+      </c>
+      <c r="T240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2</v>
+      </c>
+      <c r="V240" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X240" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>15</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>29</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2960481</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45017.60416666666</v>
+      </c>
+      <c r="F241" t="n">
+        <v>27</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Villefranche</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>3</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="n">
+        <v>4</v>
+      </c>
+      <c r="L241" t="n">
+        <v>3</v>
+      </c>
+      <c r="M241" t="n">
+        <v>2</v>
+      </c>
+      <c r="N241" t="n">
+        <v>5</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['7', '12', '22']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['45+2', '64']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>4</v>
+      </c>
+      <c r="R241" t="n">
+        <v>8</v>
+      </c>
+      <c r="S241" t="n">
+        <v>12</v>
+      </c>
+      <c r="T241" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V241" t="n">
+        <v>4</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X241" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2960485</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45019.54166666666</v>
+      </c>
+      <c r="F242" t="n">
+        <v>27</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Versailles</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Châteauroux</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>7</v>
+      </c>
+      <c r="R242" t="n">
+        <v>3</v>
+      </c>
+      <c r="S242" t="n">
+        <v>10</v>
+      </c>
+      <c r="T242" t="n">
+        <v>3</v>
+      </c>
+      <c r="U242" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V242" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X242" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2960483</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45019.5625</v>
+      </c>
+      <c r="F243" t="n">
+        <v>27</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>3</v>
+      </c>
+      <c r="R243" t="n">
+        <v>5</v>
+      </c>
+      <c r="S243" t="n">
+        <v>8</v>
+      </c>
+      <c r="T243" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V243" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X243" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France National_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France National_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK243"/>
+  <dimension ref="A1:BK251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT2" t="n">
         <v>0.71</v>
@@ -1106,7 +1106,7 @@
         <v>1.64</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT4" t="n">
         <v>1.43</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT7" t="n">
         <v>1.71</v>
@@ -2121,7 +2121,7 @@
         <v>1.86</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT12" t="n">
         <v>1.38</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT13" t="n">
         <v>0.86</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>1.08</v>
@@ -3542,7 +3542,7 @@
         <v>1.08</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.64</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AU17" t="n">
         <v>1.59</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.93</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU21" t="n">
         <v>1.15</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT22" t="n">
         <v>1.21</v>
@@ -5166,7 +5166,7 @@
         <v>1.07</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU23" t="n">
         <v>1.17</v>
@@ -5369,7 +5369,7 @@
         <v>1.86</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU24" t="n">
         <v>1.46</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT25" t="n">
         <v>0.71</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT26" t="n">
         <v>1.43</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU27" t="n">
         <v>1.58</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT29" t="n">
         <v>1.08</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT30" t="n">
         <v>1.38</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT31" t="n">
         <v>0.86</v>
@@ -7196,7 +7196,7 @@
         <v>1.31</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU33" t="n">
         <v>1.17</v>
@@ -7399,7 +7399,7 @@
         <v>1.64</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU34" t="n">
         <v>1.43</v>
@@ -7602,7 +7602,7 @@
         <v>1.08</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU35" t="n">
         <v>2.36</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT36" t="n">
         <v>1.43</v>
@@ -8208,10 +8208,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU38" t="n">
         <v>2.29</v>
@@ -8614,7 +8614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT40" t="n">
         <v>1.43</v>
@@ -8820,7 +8820,7 @@
         <v>1.07</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AU41" t="n">
         <v>1.05</v>
@@ -9023,7 +9023,7 @@
         <v>1.79</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU42" t="n">
         <v>1.78</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT43" t="n">
         <v>1.07</v>
@@ -9429,7 +9429,7 @@
         <v>1.93</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU44" t="n">
         <v>1.61</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU45" t="n">
         <v>1.18</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT46" t="n">
         <v>0.71</v>
@@ -10238,7 +10238,7 @@
         <v>0.67</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT48" t="n">
         <v>1.43</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT49" t="n">
         <v>0.86</v>
@@ -10644,10 +10644,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU50" t="n">
         <v>1.41</v>
@@ -10847,7 +10847,7 @@
         <v>1.67</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT51" t="n">
         <v>1.71</v>
@@ -11256,7 +11256,7 @@
         <v>1.64</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU53" t="n">
         <v>1.48</v>
@@ -11662,7 +11662,7 @@
         <v>1.86</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU55" t="n">
         <v>1.66</v>
@@ -11862,10 +11862,10 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU56" t="n">
         <v>1.3</v>
@@ -12268,10 +12268,10 @@
         <v>2.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU58" t="n">
         <v>1.59</v>
@@ -12474,7 +12474,7 @@
         <v>1.07</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU59" t="n">
         <v>1.23</v>
@@ -12674,7 +12674,7 @@
         <v>0.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT60" t="n">
         <v>1.43</v>
@@ -12880,7 +12880,7 @@
         <v>1.79</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AU61" t="n">
         <v>1.69</v>
@@ -13283,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
         <v>1.21</v>
@@ -13486,10 +13486,10 @@
         <v>1.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU64" t="n">
         <v>1.91</v>
@@ -13895,7 +13895,7 @@
         <v>1.07</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU66" t="n">
         <v>1.1</v>
@@ -14095,10 +14095,10 @@
         <v>0.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU67" t="n">
         <v>1.32</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT68" t="n">
         <v>1.71</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT70" t="n">
         <v>0.71</v>
@@ -15516,7 +15516,7 @@
         <v>0.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT74" t="n">
         <v>1.43</v>
@@ -15722,7 +15722,7 @@
         <v>1.93</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU75" t="n">
         <v>1.47</v>
@@ -15922,7 +15922,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT76" t="n">
         <v>1.17</v>
@@ -16128,7 +16128,7 @@
         <v>1.38</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU77" t="n">
         <v>2</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU78" t="n">
         <v>1.55</v>
@@ -16531,10 +16531,10 @@
         <v>2.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AU79" t="n">
         <v>1.52</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT80" t="n">
         <v>1.07</v>
@@ -16937,10 +16937,10 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU81" t="n">
         <v>1.84</v>
@@ -17143,7 +17143,7 @@
         <v>1.79</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU82" t="n">
         <v>1.53</v>
@@ -17952,7 +17952,7 @@
         <v>1.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT86" t="n">
         <v>1.21</v>
@@ -18155,7 +18155,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT87" t="n">
         <v>1.08</v>
@@ -18767,7 +18767,7 @@
         <v>1.93</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU90" t="n">
         <v>1.53</v>
@@ -19170,10 +19170,10 @@
         <v>0.5</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU92" t="n">
         <v>1.78</v>
@@ -19376,7 +19376,7 @@
         <v>1.38</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AU93" t="n">
         <v>1.72</v>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT94" t="n">
         <v>1.07</v>
@@ -19782,7 +19782,7 @@
         <v>1.79</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU95" t="n">
         <v>1.53</v>
@@ -19982,10 +19982,10 @@
         <v>0.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU96" t="n">
         <v>1.42</v>
@@ -20185,10 +20185,10 @@
         <v>1.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU97" t="n">
         <v>1.39</v>
@@ -20388,7 +20388,7 @@
         <v>1.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT98" t="n">
         <v>1.17</v>
@@ -20591,10 +20591,10 @@
         <v>1.6</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU99" t="n">
         <v>1.78</v>
@@ -20794,10 +20794,10 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU100" t="n">
         <v>1.8</v>
@@ -22621,7 +22621,7 @@
         <v>1.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT109" t="n">
         <v>1.43</v>
@@ -22824,10 +22824,10 @@
         <v>1.2</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU110" t="n">
         <v>1.24</v>
@@ -23027,10 +23027,10 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU111" t="n">
         <v>1.41</v>
@@ -23230,10 +23230,10 @@
         <v>2.6</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AU112" t="n">
         <v>1.61</v>
@@ -23433,10 +23433,10 @@
         <v>2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU113" t="n">
         <v>1.35</v>
@@ -23636,7 +23636,7 @@
         <v>1</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT114" t="n">
         <v>1.17</v>
@@ -23839,10 +23839,10 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU115" t="n">
         <v>1.76</v>
@@ -24045,7 +24045,7 @@
         <v>1.38</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU116" t="n">
         <v>1.6</v>
@@ -24245,10 +24245,10 @@
         <v>1</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU117" t="n">
         <v>1.69</v>
@@ -24448,10 +24448,10 @@
         <v>0.17</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU118" t="n">
         <v>1.75</v>
@@ -24854,7 +24854,7 @@
         <v>0.83</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT120" t="n">
         <v>1.08</v>
@@ -25263,7 +25263,7 @@
         <v>1.93</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU122" t="n">
         <v>2.03</v>
@@ -25463,7 +25463,7 @@
         <v>1.14</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT123" t="n">
         <v>0.71</v>
@@ -26481,7 +26481,7 @@
         <v>1.38</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU128" t="n">
         <v>1.73</v>
@@ -26681,10 +26681,10 @@
         <v>0.57</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU129" t="n">
         <v>1.44</v>
@@ -26884,10 +26884,10 @@
         <v>1.33</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU130" t="n">
         <v>1.94</v>
@@ -27087,10 +27087,10 @@
         <v>1.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU131" t="n">
         <v>1.4</v>
@@ -27290,7 +27290,7 @@
         <v>0.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT132" t="n">
         <v>1.17</v>
@@ -27496,7 +27496,7 @@
         <v>1.08</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU133" t="n">
         <v>1.7</v>
@@ -27696,7 +27696,7 @@
         <v>1.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT134" t="n">
         <v>1.38</v>
@@ -27899,10 +27899,10 @@
         <v>0.33</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU135" t="n">
         <v>1.42</v>
@@ -28102,10 +28102,10 @@
         <v>2.33</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AU136" t="n">
         <v>1.77</v>
@@ -28914,7 +28914,7 @@
         <v>1.25</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT140" t="n">
         <v>1.43</v>
@@ -29120,7 +29120,7 @@
         <v>1.93</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU141" t="n">
         <v>2.09</v>
@@ -29320,7 +29320,7 @@
         <v>0.86</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT142" t="n">
         <v>0.86</v>
@@ -29523,7 +29523,7 @@
         <v>1.38</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT143" t="n">
         <v>1.43</v>
@@ -29929,7 +29929,7 @@
         <v>1.29</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT145" t="n">
         <v>1.38</v>
@@ -30132,10 +30132,10 @@
         <v>1.29</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU146" t="n">
         <v>1.16</v>
@@ -30335,10 +30335,10 @@
         <v>0.86</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT147" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU147" t="n">
         <v>1.49</v>
@@ -30538,7 +30538,7 @@
         <v>0.71</v>
       </c>
       <c r="AS148" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT148" t="n">
         <v>1.17</v>
@@ -30744,7 +30744,7 @@
         <v>1.31</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU149" t="n">
         <v>1.62</v>
@@ -31350,10 +31350,10 @@
         <v>0.29</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU152" t="n">
         <v>1.63</v>
@@ -31556,7 +31556,7 @@
         <v>1.08</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AU153" t="n">
         <v>1.7</v>
@@ -31759,7 +31759,7 @@
         <v>1.86</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU154" t="n">
         <v>1.44</v>
@@ -31959,7 +31959,7 @@
         <v>0.89</v>
       </c>
       <c r="AS155" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT155" t="n">
         <v>0.71</v>
@@ -32162,7 +32162,7 @@
         <v>1.89</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT156" t="n">
         <v>1.71</v>
@@ -32365,10 +32365,10 @@
         <v>1.22</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU157" t="n">
         <v>1.41</v>
@@ -32571,7 +32571,7 @@
         <v>1.07</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU158" t="n">
         <v>1.27</v>
@@ -32774,7 +32774,7 @@
         <v>1.38</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU159" t="n">
         <v>1.69</v>
@@ -33177,7 +33177,7 @@
         <v>1.44</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT161" t="n">
         <v>1.21</v>
@@ -33383,7 +33383,7 @@
         <v>1.64</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU162" t="n">
         <v>1.53</v>
@@ -33992,7 +33992,7 @@
         <v>1.08</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU165" t="n">
         <v>1.62</v>
@@ -34192,7 +34192,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT166" t="n">
         <v>1.38</v>
@@ -34395,10 +34395,10 @@
         <v>1.13</v>
       </c>
       <c r="AS167" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT167" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU167" t="n">
         <v>1.35</v>
@@ -34598,7 +34598,7 @@
         <v>0.78</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT168" t="n">
         <v>0.86</v>
@@ -34801,7 +34801,7 @@
         <v>1.44</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT169" t="n">
         <v>1.43</v>
@@ -35004,7 +35004,7 @@
         <v>0.88</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT170" t="n">
         <v>1.08</v>
@@ -35210,7 +35210,7 @@
         <v>1.31</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU171" t="n">
         <v>1.59</v>
@@ -35413,7 +35413,7 @@
         <v>1.93</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AU172" t="n">
         <v>2.04</v>
@@ -35616,7 +35616,7 @@
         <v>1.79</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU173" t="n">
         <v>1.27</v>
@@ -35819,7 +35819,7 @@
         <v>1.93</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU174" t="n">
         <v>1.74</v>
@@ -36019,7 +36019,7 @@
         <v>1.4</v>
       </c>
       <c r="AS175" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT175" t="n">
         <v>1.43</v>
@@ -36225,7 +36225,7 @@
         <v>1.07</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU176" t="n">
         <v>1.33</v>
@@ -36425,10 +36425,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU177" t="n">
         <v>1.75</v>
@@ -36628,7 +36628,7 @@
         <v>1.3</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT178" t="n">
         <v>1.21</v>
@@ -37034,7 +37034,7 @@
         <v>1.1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT180" t="n">
         <v>1.07</v>
@@ -37240,7 +37240,7 @@
         <v>1.64</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU181" t="n">
         <v>1.53</v>
@@ -37643,7 +37643,7 @@
         <v>0.78</v>
       </c>
       <c r="AS183" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT183" t="n">
         <v>1.08</v>
@@ -37846,7 +37846,7 @@
         <v>1.3</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT184" t="n">
         <v>1.43</v>
@@ -38052,7 +38052,7 @@
         <v>1.86</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU185" t="n">
         <v>1.46</v>
@@ -38255,7 +38255,7 @@
         <v>1.31</v>
       </c>
       <c r="AT186" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU186" t="n">
         <v>1.76</v>
@@ -38658,7 +38658,7 @@
         <v>0.8</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT188" t="n">
         <v>0.86</v>
@@ -38861,10 +38861,10 @@
         <v>1.27</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU189" t="n">
         <v>1.88</v>
@@ -39267,7 +39267,7 @@
         <v>1</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT191" t="n">
         <v>1.07</v>
@@ -39470,10 +39470,10 @@
         <v>0.6</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU192" t="n">
         <v>1.58</v>
@@ -39879,7 +39879,7 @@
         <v>1.79</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU194" t="n">
         <v>1.32</v>
@@ -40079,10 +40079,10 @@
         <v>1.55</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU195" t="n">
         <v>1.41</v>
@@ -40282,7 +40282,7 @@
         <v>1.27</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT196" t="n">
         <v>1.21</v>
@@ -40488,7 +40488,7 @@
         <v>1.93</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AU197" t="n">
         <v>1.66</v>
@@ -41097,7 +41097,7 @@
         <v>1.93</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU200" t="n">
         <v>2.06</v>
@@ -41297,7 +41297,7 @@
         <v>1.45</v>
       </c>
       <c r="AS201" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT201" t="n">
         <v>1.43</v>
@@ -41500,10 +41500,10 @@
         <v>1.5</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU202" t="n">
         <v>1.39</v>
@@ -41703,7 +41703,7 @@
         <v>0.73</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT203" t="n">
         <v>0.71</v>
@@ -41909,7 +41909,7 @@
         <v>1.86</v>
       </c>
       <c r="AT204" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU204" t="n">
         <v>1.46</v>
@@ -42312,7 +42312,7 @@
         <v>1.7</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT206" t="n">
         <v>1.71</v>
@@ -42515,10 +42515,10 @@
         <v>1.25</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU207" t="n">
         <v>1.5</v>
@@ -42718,10 +42718,10 @@
         <v>1.7</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AU208" t="n">
         <v>1.83</v>
@@ -42924,7 +42924,7 @@
         <v>1.38</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU209" t="n">
         <v>1.52</v>
@@ -43124,7 +43124,7 @@
         <v>1.5</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT210" t="n">
         <v>1.43</v>
@@ -43327,7 +43327,7 @@
         <v>1</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT211" t="n">
         <v>1.07</v>
@@ -43733,10 +43733,10 @@
         <v>1.55</v>
       </c>
       <c r="AS213" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU213" t="n">
         <v>1.48</v>
@@ -43936,10 +43936,10 @@
         <v>0.64</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU214" t="n">
         <v>1.35</v>
@@ -44142,7 +44142,7 @@
         <v>1.93</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU215" t="n">
         <v>1.58</v>
@@ -44545,7 +44545,7 @@
         <v>1.09</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT217" t="n">
         <v>1.38</v>
@@ -44748,7 +44748,7 @@
         <v>0.67</v>
       </c>
       <c r="AS218" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT218" t="n">
         <v>0.71</v>
@@ -44951,7 +44951,7 @@
         <v>1.42</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT219" t="n">
         <v>1.21</v>
@@ -45766,7 +45766,7 @@
         <v>1.07</v>
       </c>
       <c r="AT223" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU223" t="n">
         <v>1.28</v>
@@ -45969,7 +45969,7 @@
         <v>1.93</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU224" t="n">
         <v>2.05</v>
@@ -46172,7 +46172,7 @@
         <v>1.79</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU225" t="n">
         <v>1.29</v>
@@ -46372,10 +46372,10 @@
         <v>0.25</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU226" t="n">
         <v>1.79</v>
@@ -46575,7 +46575,7 @@
         <v>1.15</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT227" t="n">
         <v>1.07</v>
@@ -46778,10 +46778,10 @@
         <v>1.46</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU228" t="n">
         <v>1.48</v>
@@ -46981,10 +46981,10 @@
         <v>1.38</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU229" t="n">
         <v>1.72</v>
@@ -47184,10 +47184,10 @@
         <v>1.55</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AU230" t="n">
         <v>1.46</v>
@@ -47390,7 +47390,7 @@
         <v>1.38</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU231" t="n">
         <v>1.52</v>
@@ -47590,10 +47590,10 @@
         <v>0.58</v>
       </c>
       <c r="AS232" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU232" t="n">
         <v>1.66</v>
@@ -47793,7 +47793,7 @@
         <v>1.75</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT233" t="n">
         <v>1.71</v>
@@ -47896,10 +47896,10 @@
         <v>0</v>
       </c>
       <c r="M234" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N234" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
@@ -47908,7 +47908,7 @@
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['-1', '-1', '-1']</t>
         </is>
       </c>
       <c r="Q234" t="n">
@@ -47996,10 +47996,10 @@
         <v>1.5</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AU234" t="n">
         <v>1.36</v>
@@ -48199,7 +48199,7 @@
         <v>1.46</v>
       </c>
       <c r="AS235" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT235" t="n">
         <v>1.43</v>
@@ -48405,7 +48405,7 @@
         <v>1.93</v>
       </c>
       <c r="AT236" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU236" t="n">
         <v>2.03</v>
@@ -49411,13 +49411,13 @@
         <v>1.57</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AR241" t="n">
         <v>0.92</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT241" t="n">
         <v>0.86</v>
@@ -49878,6 +49878,1630 @@
       </c>
       <c r="BK243" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2960486</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45023.60416666666</v>
+      </c>
+      <c r="F244" t="n">
+        <v>28</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Châteauroux</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>2</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>2</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['50', '89']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>7</v>
+      </c>
+      <c r="R244" t="n">
+        <v>4</v>
+      </c>
+      <c r="S244" t="n">
+        <v>11</v>
+      </c>
+      <c r="T244" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V244" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X244" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2960489</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45023.60416666666</v>
+      </c>
+      <c r="F245" t="n">
+        <v>28</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Villefranche</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Bastia-Borgo</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>2</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>2</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['52', '79']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>4</v>
+      </c>
+      <c r="R245" t="n">
+        <v>3</v>
+      </c>
+      <c r="S245" t="n">
+        <v>7</v>
+      </c>
+      <c r="T245" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V245" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2960490</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45023.60416666666</v>
+      </c>
+      <c r="F246" t="n">
+        <v>28</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Le Puy F.43 Auvergne</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
+      <c r="K246" t="n">
+        <v>2</v>
+      </c>
+      <c r="L246" t="n">
+        <v>2</v>
+      </c>
+      <c r="M246" t="n">
+        <v>4</v>
+      </c>
+      <c r="N246" t="n">
+        <v>6</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>['19', '76']</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['30', '68', '79', '86']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>8</v>
+      </c>
+      <c r="R246" t="n">
+        <v>4</v>
+      </c>
+      <c r="S246" t="n">
+        <v>12</v>
+      </c>
+      <c r="T246" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V246" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X246" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2960491</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45023.60416666666</v>
+      </c>
+      <c r="F247" t="n">
+        <v>28</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Paris 13 Atletico</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>2</v>
+      </c>
+      <c r="N247" t="n">
+        <v>2</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['36', '60']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>6</v>
+      </c>
+      <c r="R247" t="n">
+        <v>6</v>
+      </c>
+      <c r="S247" t="n">
+        <v>12</v>
+      </c>
+      <c r="T247" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U247" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V247" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X247" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2960492</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45023.60416666666</v>
+      </c>
+      <c r="F248" t="n">
+        <v>28</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>2</v>
+      </c>
+      <c r="K248" t="n">
+        <v>2</v>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="n">
+        <v>4</v>
+      </c>
+      <c r="N248" t="n">
+        <v>5</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['21', '45+2', '73', '79']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>4</v>
+      </c>
+      <c r="R248" t="n">
+        <v>2</v>
+      </c>
+      <c r="S248" t="n">
+        <v>6</v>
+      </c>
+      <c r="T248" t="n">
+        <v>3</v>
+      </c>
+      <c r="U248" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V248" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X248" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2960493</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45023.60416666666</v>
+      </c>
+      <c r="F249" t="n">
+        <v>28</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Stade Briochin</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Versailles</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>1</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="n">
+        <v>2</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>4</v>
+      </c>
+      <c r="R249" t="n">
+        <v>4</v>
+      </c>
+      <c r="S249" t="n">
+        <v>8</v>
+      </c>
+      <c r="T249" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U249" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V249" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X249" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2960494</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45023.60416666666</v>
+      </c>
+      <c r="F250" t="n">
+        <v>28</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Orléans</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>1</v>
+      </c>
+      <c r="J250" t="n">
+        <v>2</v>
+      </c>
+      <c r="K250" t="n">
+        <v>3</v>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="n">
+        <v>2</v>
+      </c>
+      <c r="N250" t="n">
+        <v>3</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['10', '44']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>5</v>
+      </c>
+      <c r="R250" t="n">
+        <v>2</v>
+      </c>
+      <c r="S250" t="n">
+        <v>7</v>
+      </c>
+      <c r="T250" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U250" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V250" t="n">
+        <v>3</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X250" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2960488</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45023.625</v>
+      </c>
+      <c r="F251" t="n">
+        <v>28</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Martigues</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Bourg-en-Bresse</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="n">
+        <v>2</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>5</v>
+      </c>
+      <c r="R251" t="n">
+        <v>4</v>
+      </c>
+      <c r="S251" t="n">
+        <v>9</v>
+      </c>
+      <c r="T251" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V251" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X251" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France National_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France National_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK251"/>
+  <dimension ref="A1:BK252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>1.31</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT28" t="n">
         <v>1.71</v>
@@ -6993,7 +6993,7 @@
         <v>1.86</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU32" t="n">
         <v>1.57</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT39" t="n">
         <v>1.21</v>
@@ -12068,7 +12068,7 @@
         <v>1.93</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU57" t="n">
         <v>1.46</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT62" t="n">
         <v>1.07</v>
@@ -15925,7 +15925,7 @@
         <v>1.47</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU76" t="n">
         <v>1.77</v>
@@ -16125,7 +16125,7 @@
         <v>2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT77" t="n">
         <v>1.4</v>
@@ -19373,7 +19373,7 @@
         <v>2.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT93" t="n">
         <v>1.71</v>
@@ -20391,7 +20391,7 @@
         <v>1.5</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU98" t="n">
         <v>1.69</v>
@@ -23639,7 +23639,7 @@
         <v>1.5</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU114" t="n">
         <v>1.9</v>
@@ -24042,7 +24042,7 @@
         <v>0.4</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT116" t="n">
         <v>0.43</v>
@@ -26478,7 +26478,7 @@
         <v>1</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT128" t="n">
         <v>0.93</v>
@@ -27293,7 +27293,7 @@
         <v>1.43</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU132" t="n">
         <v>1.21</v>
@@ -30541,7 +30541,7 @@
         <v>0.93</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU148" t="n">
         <v>1.43</v>
@@ -30944,7 +30944,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT150" t="n">
         <v>1.08</v>
@@ -32771,7 +32771,7 @@
         <v>0.63</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT159" t="n">
         <v>0.71</v>
@@ -33789,7 +33789,7 @@
         <v>1.64</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU164" t="n">
         <v>1.53</v>
@@ -36831,7 +36831,7 @@
         <v>0.8</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT179" t="n">
         <v>0.71</v>
@@ -37443,7 +37443,7 @@
         <v>1.93</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU182" t="n">
         <v>2.05</v>
@@ -39064,7 +39064,7 @@
         <v>1.36</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT190" t="n">
         <v>1.43</v>
@@ -39676,7 +39676,7 @@
         <v>1.07</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU193" t="n">
         <v>1.3</v>
@@ -42921,7 +42921,7 @@
         <v>1.5</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT209" t="n">
         <v>1.33</v>
@@ -43533,7 +43533,7 @@
         <v>1.79</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU212" t="n">
         <v>1.32</v>
@@ -47387,7 +47387,7 @@
         <v>1.67</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT231" t="n">
         <v>1.86</v>
@@ -51502,6 +51502,209 @@
       </c>
       <c r="BK251" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2960487</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>France National</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45026.66666666666</v>
+      </c>
+      <c r="F252" t="n">
+        <v>28</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>3</v>
+      </c>
+      <c r="R252" t="n">
+        <v>4</v>
+      </c>
+      <c r="S252" t="n">
+        <v>7</v>
+      </c>
+      <c r="T252" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2</v>
+      </c>
+      <c r="V252" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X252" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
